--- a/Kokudo-2023-03-25.xlsx
+++ b/Kokudo-2023-03-25.xlsx
@@ -20,16 +20,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
   </definedNames>
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
-  <webPublishing allowPng="1" css="0" characterSet="UTF-8"/>
+  <webPublishing allowPng="1" css="0" codePage="1252"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1" count="1">
-  <si>
-    <t>https:/discord.gg/6y4vmXR8</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,7 +48,7 @@
       <strike val="0"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,21 +121,15 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9F2FF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
+      <left style="none">
         <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="none">
+      </left>
+      <right style="none">
         <color rgb="FFC7C7C7"/>
-      </end>
+      </right>
       <top style="none">
         <color rgb="FFC7C7C7"/>
       </top>
@@ -152,12 +138,12 @@
       </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF000000"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -166,12 +152,12 @@
       </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF000000"/>
-      </start>
-      <end style="none">
+      </left>
+      <right style="none">
         <color rgb="FFC7C7C7"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -180,12 +166,12 @@
       </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
+      <left style="none">
         <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -194,12 +180,12 @@
       </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF000000"/>
-      </start>
-      <end style="none">
+      </left>
+      <right style="none">
         <color rgb="FFC7C7C7"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -208,12 +194,12 @@
       </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
+      <left style="none">
         <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -222,12 +208,12 @@
       </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF000000"/>
-      </start>
-      <end style="none">
+      </left>
+      <right style="none">
         <color rgb="FFC7C7C7"/>
-      </end>
+      </right>
       <top style="none">
         <color rgb="FFC7C7C7"/>
       </top>
@@ -236,12 +222,12 @@
       </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
+      <left style="none">
         <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </end>
+      </right>
       <top style="none">
         <color rgb="FFC7C7C7"/>
       </top>
@@ -250,12 +236,12 @@
       </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF000000"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </end>
+      </right>
       <top style="none">
         <color rgb="FFC7C7C7"/>
       </top>
@@ -270,7 +256,7 @@
       <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
@@ -431,10 +417,6 @@
       <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="13" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="12" borderId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
@@ -457,14 +439,6 @@
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="13" borderId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="7" borderId="8" numFmtId="0" xfId="0">
@@ -513,20 +487,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IB65536"/>
+  <dimension ref="A1:IV65536"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" tabSelected="1">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A34" workbookViewId="0" zoomScale="115" tabSelected="1">
+      <selection activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.57"/>
   <cols>
     <col min="1" max="89" style="1" width="3.7273950320512825" customWidth="1"/>
-    <col min="90" max="236" style="1" width="3.7273950320512825"/>
-    <col min="237" max="256" style="0" width="3.7273950320512825"/>
+    <col min="90" max="236" style="1" width="3.7273950320512825" bestFit="1" customWidth="1"/>
+    <col min="237" max="256" style="0" width="3.7273950320512825" bestFit="1" customWidth="1"/>
+    <col min="257" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:236">
+    <row r="1" spans="1:256">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -534,14 +509,16 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:236" customHeight="1" ht="19.57">
+    <row r="2" spans="1:256" customHeight="1" ht="19.57">
       <c r="C2" t="inlineStr">
         <is>
           <t>2023-03-25 NAP</t>
         </is>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>https:/discord.gg/6y4vmXR8</t>
+        </is>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -549,7 +526,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:236" customHeight="1" ht="19.57">
+    <row r="3" spans="1:256" customHeight="1" ht="19.57">
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
       <c r="AC3" s="0"/>
@@ -558,7 +535,7 @@
       <c r="AF3" s="0"/>
       <c r="AP3" s="3"/>
     </row>
-    <row r="4" spans="1:236" customHeight="1" ht="19.57">
+    <row r="4" spans="1:256" customHeight="1" ht="19.57">
       <c r="C4">
         <v>215</v>
       </c>
@@ -809,23 +786,23 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:236" customHeight="1" ht="19.57">
+    <row r="5" spans="1:256" customHeight="1" ht="19.57">
       <c r="B5">
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:236" customHeight="1" ht="19.57">
+    <row r="6" spans="1:256" customHeight="1" ht="19.57">
       <c r="B6">
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:236" customHeight="1" ht="19.57">
+    <row r="7" spans="1:256" customHeight="1" ht="19.57">
       <c r="B7">
         <v>472</v>
       </c>
       <c r="AR7" s="4"/>
     </row>
-    <row r="8" spans="1:236" customHeight="1" ht="19.57">
+    <row r="8" spans="1:256" customHeight="1" ht="19.57">
       <c r="B8">
         <v>473</v>
       </c>
@@ -833,7 +810,7 @@
       <c r="AR8" s="6"/>
       <c r="AS8" s="7"/>
     </row>
-    <row r="9" spans="1:236" customHeight="1" ht="19.57">
+    <row r="9" spans="1:256" customHeight="1" ht="19.57">
       <c r="B9">
         <v>474</v>
       </c>
@@ -843,7 +820,7 @@
       <c r="AS9" s="10"/>
       <c r="AT9" s="11"/>
     </row>
-    <row r="10" spans="1:236" customHeight="1" ht="19.57">
+    <row r="10" spans="1:256" customHeight="1" ht="19.57">
       <c r="B10">
         <v>475</v>
       </c>
@@ -855,7 +832,7 @@
       <c r="AT10" s="9"/>
       <c r="AU10" s="7"/>
     </row>
-    <row r="11" spans="1:236" customHeight="1" ht="19.57">
+    <row r="11" spans="1:256" customHeight="1" ht="19.57">
       <c r="B11">
         <v>476</v>
       </c>
@@ -869,7 +846,7 @@
       <c r="AU11" s="6"/>
       <c r="AV11" s="7"/>
     </row>
-    <row r="12" spans="1:236" customHeight="1" ht="19.57">
+    <row r="12" spans="1:256" customHeight="1" ht="19.57">
       <c r="B12">
         <v>477</v>
       </c>
@@ -885,7 +862,7 @@
       <c r="AV12" s="10"/>
       <c r="AW12" s="13"/>
     </row>
-    <row r="13" spans="1:236" customHeight="1" ht="19.57">
+    <row r="13" spans="1:256" customHeight="1" ht="19.57">
       <c r="B13">
         <v>478</v>
       </c>
@@ -903,7 +880,7 @@
       <c r="AW13" s="15"/>
       <c r="AX13" s="7"/>
     </row>
-    <row r="14" spans="1:236" customHeight="1" ht="19.57">
+    <row r="14" spans="1:256" customHeight="1" ht="19.57">
       <c r="B14">
         <v>479</v>
       </c>
@@ -927,7 +904,7 @@
       <c r="AX14" s="6"/>
       <c r="AY14" s="7"/>
     </row>
-    <row r="15" spans="1:236" customHeight="1" ht="19.57">
+    <row r="15" spans="1:256" customHeight="1" ht="19.57">
       <c r="B15">
         <v>480</v>
       </c>
@@ -949,7 +926,7 @@
       <c r="AY15" s="15"/>
       <c r="AZ15" s="13"/>
     </row>
-    <row r="16" spans="1:236" customHeight="1" ht="19.57">
+    <row r="16" spans="1:256" customHeight="1" ht="19.57">
       <c r="B16">
         <v>481</v>
       </c>
@@ -973,7 +950,7 @@
       <c r="AZ16" s="15"/>
       <c r="BA16" s="7"/>
     </row>
-    <row r="17" spans="1:236" customHeight="1" ht="19.57">
+    <row r="17" spans="1:256" customHeight="1" ht="19.57">
       <c r="B17">
         <v>482</v>
       </c>
@@ -1007,7 +984,7 @@
       <c r="BA17" s="6"/>
       <c r="BB17" s="7"/>
     </row>
-    <row r="18" spans="1:236" customHeight="1" ht="19.57">
+    <row r="18" spans="1:256" customHeight="1" ht="19.57">
       <c r="B18">
         <v>483</v>
       </c>
@@ -1035,7 +1012,7 @@
       <c r="BB18" s="15"/>
       <c r="BC18" s="13"/>
     </row>
-    <row r="19" spans="1:236" customHeight="1" ht="19.57">
+    <row r="19" spans="1:256" customHeight="1" ht="19.57">
       <c r="B19">
         <v>484</v>
       </c>
@@ -1065,7 +1042,7 @@
       <c r="BC19" s="15"/>
       <c r="BD19" s="7"/>
     </row>
-    <row r="20" spans="1:236" customHeight="1" ht="19.57">
+    <row r="20" spans="1:256" customHeight="1" ht="19.57">
       <c r="B20">
         <v>485</v>
       </c>
@@ -1109,7 +1086,7 @@
       <c r="BD20" s="6"/>
       <c r="BE20" s="7"/>
     </row>
-    <row r="21" spans="1:236" customHeight="1" ht="19.57">
+    <row r="21" spans="1:256" customHeight="1" ht="19.57">
       <c r="B21">
         <v>486</v>
       </c>
@@ -1143,7 +1120,7 @@
       <c r="BE21" s="15"/>
       <c r="BF21" s="13"/>
     </row>
-    <row r="22" spans="1:236" customHeight="1" ht="19.57">
+    <row r="22" spans="1:256" customHeight="1" ht="19.57">
       <c r="B22">
         <v>487</v>
       </c>
@@ -1179,7 +1156,7 @@
       <c r="BF22" s="15"/>
       <c r="BG22" s="23"/>
     </row>
-    <row r="23" spans="1:236" customHeight="1" ht="19.57">
+    <row r="23" spans="1:256" customHeight="1" ht="19.57">
       <c r="B23">
         <v>488</v>
       </c>
@@ -1237,7 +1214,7 @@
       </c>
       <c r="BH23" s="23"/>
     </row>
-    <row r="24" spans="1:236" customHeight="1" ht="19.57">
+    <row r="24" spans="1:256" customHeight="1" ht="19.57">
       <c r="B24">
         <v>489</v>
       </c>
@@ -1277,7 +1254,7 @@
       <c r="BH24" s="19"/>
       <c r="BI24" s="25"/>
     </row>
-    <row r="25" spans="1:236" customHeight="1" ht="19.57">
+    <row r="25" spans="1:256" customHeight="1" ht="19.57">
       <c r="B25">
         <v>490</v>
       </c>
@@ -1319,7 +1296,7 @@
       <c r="BI25" s="19"/>
       <c r="BJ25" s="25"/>
     </row>
-    <row r="26" spans="1:236" customHeight="1" ht="19.57">
+    <row r="26" spans="1:256" customHeight="1" ht="19.57">
       <c r="B26">
         <v>491</v>
       </c>
@@ -1387,7 +1364,7 @@
       <c r="BJ26" s="19"/>
       <c r="BK26" s="25"/>
     </row>
-    <row r="27" spans="1:236" customHeight="1" ht="19.57">
+    <row r="27" spans="1:256" customHeight="1" ht="19.57">
       <c r="B27">
         <v>492</v>
       </c>
@@ -1434,7 +1411,7 @@
       <c r="BL27" s="25"/>
       <c r="BM27" s="19"/>
     </row>
-    <row r="28" spans="1:236" customHeight="1" ht="19.57">
+    <row r="28" spans="1:256" customHeight="1" ht="19.57">
       <c r="B28">
         <v>493</v>
       </c>
@@ -1482,7 +1459,7 @@
       <c r="BL28" s="19"/>
       <c r="BM28" s="25"/>
     </row>
-    <row r="29" spans="1:236" customHeight="1" ht="19.57">
+    <row r="29" spans="1:256" customHeight="1" ht="19.57">
       <c r="B29">
         <v>494</v>
       </c>
@@ -1552,7 +1529,7 @@
       <c r="BM29" s="19"/>
       <c r="BN29" s="25"/>
     </row>
-    <row r="30" spans="1:236" customHeight="1" ht="19.57">
+    <row r="30" spans="1:256" customHeight="1" ht="19.57">
       <c r="B30">
         <v>495</v>
       </c>
@@ -1604,7 +1581,7 @@
       <c r="BN30" s="19"/>
       <c r="BO30" s="25"/>
     </row>
-    <row r="31" spans="1:236" customHeight="1" ht="19.57">
+    <row r="31" spans="1:256" customHeight="1" ht="19.57">
       <c r="B31">
         <v>496</v>
       </c>
@@ -1658,7 +1635,7 @@
       <c r="BO31" s="19"/>
       <c r="BP31" s="25"/>
     </row>
-    <row r="32" spans="1:236" customHeight="1" ht="19.57">
+    <row r="32" spans="1:256" customHeight="1" ht="19.57">
       <c r="B32">
         <v>497</v>
       </c>
@@ -1730,7 +1707,7 @@
       <c r="BP32" s="19"/>
       <c r="BQ32" s="25"/>
     </row>
-    <row r="33" spans="1:236" customHeight="1" ht="19.57">
+    <row r="33" spans="1:256" customHeight="1" ht="19.57">
       <c r="B33">
         <v>498</v>
       </c>
@@ -1788,7 +1765,7 @@
       <c r="BQ33" s="19"/>
       <c r="BR33" s="25"/>
     </row>
-    <row r="34" spans="1:236" customHeight="1" ht="19.57">
+    <row r="34" spans="1:256" customHeight="1" ht="19.57">
       <c r="B34">
         <v>499</v>
       </c>
@@ -1823,7 +1800,7 @@
       <c r="BR34" s="19"/>
       <c r="BS34" s="25"/>
     </row>
-    <row r="35" spans="1:236" customHeight="1" ht="19.57">
+    <row r="35" spans="1:256" customHeight="1" ht="19.57">
       <c r="B35">
         <v>500</v>
       </c>
@@ -1901,7 +1878,7 @@
       <c r="BS35" s="19"/>
       <c r="BT35" s="25"/>
     </row>
-    <row r="36" spans="1:236" customHeight="1" ht="19.57">
+    <row r="36" spans="1:256" customHeight="1" ht="19.57">
       <c r="B36">
         <v>501</v>
       </c>
@@ -1965,7 +1942,7 @@
       <c r="BT36" s="19"/>
       <c r="BU36" s="25"/>
     </row>
-    <row r="37" spans="1:236" customHeight="1" ht="19.57">
+    <row r="37" spans="1:256" customHeight="1" ht="19.57">
       <c r="B37">
         <v>502</v>
       </c>
@@ -2031,7 +2008,7 @@
       <c r="BU37" s="19"/>
       <c r="BV37" s="25"/>
     </row>
-    <row r="38" spans="1:236" customHeight="1" ht="19.57">
+    <row r="38" spans="1:256" customHeight="1" ht="19.57">
       <c r="B38">
         <v>503</v>
       </c>
@@ -2103,7 +2080,7 @@
       <c r="BV38" s="19"/>
       <c r="BW38" s="25"/>
     </row>
-    <row r="39" spans="1:236" customHeight="1" ht="19.57">
+    <row r="39" spans="1:256" customHeight="1" ht="19.57">
       <c r="B39">
         <v>504</v>
       </c>
@@ -2173,7 +2150,7 @@
       <c r="BW39" s="19"/>
       <c r="BX39" s="25"/>
     </row>
-    <row r="40" spans="1:236" customHeight="1" ht="19.57">
+    <row r="40" spans="1:256" customHeight="1" ht="19.57">
       <c r="B40">
         <v>505</v>
       </c>
@@ -2245,7 +2222,7 @@
       <c r="BX40" s="19"/>
       <c r="BY40" s="25"/>
     </row>
-    <row r="41" spans="1:236" customHeight="1" ht="19.57">
+    <row r="41" spans="1:256" customHeight="1" ht="19.57">
       <c r="B41">
         <v>506</v>
       </c>
@@ -2319,7 +2296,7 @@
       <c r="BY41" s="19"/>
       <c r="BZ41" s="25"/>
     </row>
-    <row r="42" spans="1:236" customHeight="1" ht="19.57">
+    <row r="42" spans="1:256" customHeight="1" ht="19.57">
       <c r="B42">
         <v>507</v>
       </c>
@@ -2395,7 +2372,7 @@
       <c r="BZ42" s="19"/>
       <c r="CA42" s="25"/>
     </row>
-    <row r="43" spans="1:236" customHeight="1" ht="19.57">
+    <row r="43" spans="1:256" customHeight="1" ht="19.57">
       <c r="B43">
         <v>508</v>
       </c>
@@ -2473,7 +2450,7 @@
       <c r="CA43" s="19"/>
       <c r="CB43" s="25"/>
     </row>
-    <row r="44" spans="1:236" customHeight="1" ht="19.57">
+    <row r="44" spans="1:256" customHeight="1" ht="19.57">
       <c r="B44">
         <v>509</v>
       </c>
@@ -2553,7 +2530,7 @@
       <c r="CB44" s="19"/>
       <c r="CC44" s="25"/>
     </row>
-    <row r="45" spans="1:236" customHeight="1" ht="19.57">
+    <row r="45" spans="1:256" customHeight="1" ht="19.57">
       <c r="B45">
         <v>510</v>
       </c>
@@ -2635,7 +2612,7 @@
       <c r="CC45" s="19"/>
       <c r="CD45" s="25"/>
     </row>
-    <row r="46" spans="1:236" customHeight="1" ht="19.57">
+    <row r="46" spans="1:256" customHeight="1" ht="19.57">
       <c r="B46">
         <v>511</v>
       </c>
@@ -2719,7 +2696,7 @@
       <c r="CD46" s="19"/>
       <c r="CE46" s="25"/>
     </row>
-    <row r="47" spans="1:236" customHeight="1" ht="19.57">
+    <row r="47" spans="1:256" customHeight="1" ht="19.57">
       <c r="B47">
         <v>512</v>
       </c>
@@ -2813,7 +2790,7 @@
       <c r="CE47" s="19"/>
       <c r="CF47" s="38"/>
     </row>
-    <row r="48" spans="1:236" customHeight="1" ht="19.57">
+    <row r="48" spans="1:256" customHeight="1" ht="19.57">
       <c r="B48">
         <v>513</v>
       </c>
@@ -2844,8 +2821,8 @@
       <c r="AC48" s="19"/>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19"/>
-      <c r="AF48" s="40"/>
-      <c r="AG48" s="41"/>
+      <c r="AF48" s="19"/>
+      <c r="AG48" s="40"/>
       <c r="AH48" s="32"/>
       <c r="AI48" s="32"/>
       <c r="AJ48" s="32"/>
@@ -2867,7 +2844,7 @@
       <c r="AZ48" s="32"/>
       <c r="BA48" s="32"/>
       <c r="BB48" s="32"/>
-      <c r="BC48" s="42"/>
+      <c r="BC48" s="41"/>
       <c r="BD48" s="19"/>
       <c r="BE48" s="19"/>
       <c r="BF48" s="19"/>
@@ -2895,9 +2872,9 @@
       <c r="CB48" s="19"/>
       <c r="CC48" s="19"/>
       <c r="CD48" s="19"/>
-      <c r="CE48" s="43"/>
-    </row>
-    <row r="49" spans="1:236" customHeight="1" ht="19.57">
+      <c r="CE48" s="42"/>
+    </row>
+    <row r="49" spans="1:256" customHeight="1" ht="19.57">
       <c r="B49">
         <v>514</v>
       </c>
@@ -2927,9 +2904,9 @@
       <c r="AC49" s="19"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
-      <c r="AF49" s="40"/>
-      <c r="AG49" s="40"/>
-      <c r="AH49" s="41"/>
+      <c r="AF49" s="19"/>
+      <c r="AG49" s="19"/>
+      <c r="AH49" s="40"/>
       <c r="AI49" s="32"/>
       <c r="AJ49" s="32"/>
       <c r="AK49" s="32"/>
@@ -2949,8 +2926,8 @@
       <c r="AY49" s="32"/>
       <c r="AZ49" s="32"/>
       <c r="BA49" s="32"/>
-      <c r="BB49" s="42"/>
-      <c r="BC49" s="40"/>
+      <c r="BB49" s="41"/>
+      <c r="BC49" s="19"/>
       <c r="BD49" s="19"/>
       <c r="BE49" s="19"/>
       <c r="BF49" s="19"/>
@@ -2977,9 +2954,9 @@
       <c r="CA49" s="19"/>
       <c r="CB49" s="19"/>
       <c r="CC49" s="19"/>
-      <c r="CD49" s="43"/>
-    </row>
-    <row r="50" spans="1:236" customHeight="1" ht="19.57">
+      <c r="CD49" s="42"/>
+    </row>
+    <row r="50" spans="1:256" customHeight="1" ht="19.57">
       <c r="B50">
         <v>515</v>
       </c>
@@ -3008,10 +2985,10 @@
       <c r="AC50" s="19"/>
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
-      <c r="AF50" s="40"/>
-      <c r="AG50" s="40"/>
-      <c r="AH50" s="40"/>
-      <c r="AI50" s="41"/>
+      <c r="AF50" s="19"/>
+      <c r="AG50" s="19"/>
+      <c r="AH50" s="19"/>
+      <c r="AI50" s="40"/>
       <c r="AJ50" s="32"/>
       <c r="AK50" s="32"/>
       <c r="AL50" s="32"/>
@@ -3029,9 +3006,9 @@
       <c r="AX50" s="32"/>
       <c r="AY50" s="32"/>
       <c r="AZ50" s="32"/>
-      <c r="BA50" s="42"/>
-      <c r="BB50" s="40"/>
-      <c r="BC50" s="40"/>
+      <c r="BA50" s="41"/>
+      <c r="BB50" s="19"/>
+      <c r="BC50" s="19"/>
       <c r="BD50" s="19"/>
       <c r="BE50" s="19"/>
       <c r="BF50" s="19"/>
@@ -3057,9 +3034,9 @@
       <c r="BZ50" s="19"/>
       <c r="CA50" s="19"/>
       <c r="CB50" s="19"/>
-      <c r="CC50" s="43"/>
-    </row>
-    <row r="51" spans="1:236" customHeight="1" ht="19.57">
+      <c r="CC50" s="42"/>
+    </row>
+    <row r="51" spans="1:256" customHeight="1" ht="19.57">
       <c r="B51">
         <v>516</v>
       </c>
@@ -3087,11 +3064,11 @@
       <c r="AC51" s="19"/>
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
-      <c r="AF51" s="40"/>
-      <c r="AG51" s="40"/>
-      <c r="AH51" s="40"/>
-      <c r="AI51" s="40"/>
-      <c r="AJ51" s="41"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="19"/>
+      <c r="AH51" s="19"/>
+      <c r="AI51" s="19"/>
+      <c r="AJ51" s="40"/>
       <c r="AK51" s="32"/>
       <c r="AL51" s="32"/>
       <c r="AM51" s="32"/>
@@ -3107,10 +3084,10 @@
       <c r="AW51" s="32"/>
       <c r="AX51" s="32"/>
       <c r="AY51" s="32"/>
-      <c r="AZ51" s="42"/>
-      <c r="BA51" s="40"/>
-      <c r="BB51" s="40"/>
-      <c r="BC51" s="40"/>
+      <c r="AZ51" s="41"/>
+      <c r="BA51" s="19"/>
+      <c r="BB51" s="19"/>
+      <c r="BC51" s="19"/>
       <c r="BD51" s="19"/>
       <c r="BE51" s="19"/>
       <c r="BF51" s="19"/>
@@ -3135,9 +3112,9 @@
       <c r="BY51" s="19"/>
       <c r="BZ51" s="19"/>
       <c r="CA51" s="19"/>
-      <c r="CB51" s="43"/>
-    </row>
-    <row r="52" spans="1:236" customHeight="1" ht="19.57">
+      <c r="CB51" s="42"/>
+    </row>
+    <row r="52" spans="1:256" customHeight="1" ht="19.57">
       <c r="B52">
         <v>517</v>
       </c>
@@ -3164,12 +3141,12 @@
       <c r="AC52" s="19"/>
       <c r="AD52" s="19"/>
       <c r="AE52" s="19"/>
-      <c r="AF52" s="40"/>
-      <c r="AG52" s="40"/>
-      <c r="AH52" s="40"/>
-      <c r="AI52" s="40"/>
-      <c r="AJ52" s="40"/>
-      <c r="AK52" s="41"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="19"/>
+      <c r="AJ52" s="19"/>
+      <c r="AK52" s="40"/>
       <c r="AL52" s="32"/>
       <c r="AM52" s="32"/>
       <c r="AN52" s="32"/>
@@ -3183,11 +3160,11 @@
       <c r="AV52" s="32"/>
       <c r="AW52" s="32"/>
       <c r="AX52" s="32"/>
-      <c r="AY52" s="42"/>
-      <c r="AZ52" s="40"/>
-      <c r="BA52" s="40"/>
-      <c r="BB52" s="40"/>
-      <c r="BC52" s="40"/>
+      <c r="AY52" s="41"/>
+      <c r="AZ52" s="19"/>
+      <c r="BA52" s="19"/>
+      <c r="BB52" s="19"/>
+      <c r="BC52" s="19"/>
       <c r="BD52" s="19"/>
       <c r="BE52" s="19"/>
       <c r="BF52" s="19"/>
@@ -3211,9 +3188,9 @@
       <c r="BX52" s="19"/>
       <c r="BY52" s="19"/>
       <c r="BZ52" s="19"/>
-      <c r="CA52" s="43"/>
-    </row>
-    <row r="53" spans="1:236" customHeight="1" ht="19.57">
+      <c r="CA52" s="42"/>
+    </row>
+    <row r="53" spans="1:256" customHeight="1" ht="19.57">
       <c r="B53">
         <v>518</v>
       </c>
@@ -3239,13 +3216,13 @@
       <c r="AC53" s="19"/>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
-      <c r="AF53" s="40"/>
-      <c r="AG53" s="40"/>
-      <c r="AH53" s="40"/>
-      <c r="AI53" s="40"/>
-      <c r="AJ53" s="40"/>
-      <c r="AK53" s="40"/>
-      <c r="AL53" s="41"/>
+      <c r="AF53" s="19"/>
+      <c r="AG53" s="19"/>
+      <c r="AH53" s="19"/>
+      <c r="AI53" s="19"/>
+      <c r="AJ53" s="19"/>
+      <c r="AK53" s="19"/>
+      <c r="AL53" s="40"/>
       <c r="AM53" s="32"/>
       <c r="AN53" s="32"/>
       <c r="AO53" s="32"/>
@@ -3257,12 +3234,12 @@
       <c r="AU53" s="32"/>
       <c r="AV53" s="32"/>
       <c r="AW53" s="32"/>
-      <c r="AX53" s="42"/>
-      <c r="AY53" s="40"/>
-      <c r="AZ53" s="40"/>
-      <c r="BA53" s="40"/>
-      <c r="BB53" s="40"/>
-      <c r="BC53" s="40"/>
+      <c r="AX53" s="41"/>
+      <c r="AY53" s="19"/>
+      <c r="AZ53" s="19"/>
+      <c r="BA53" s="19"/>
+      <c r="BB53" s="19"/>
+      <c r="BC53" s="19"/>
       <c r="BD53" s="19"/>
       <c r="BE53" s="19"/>
       <c r="BF53" s="19"/>
@@ -3285,9 +3262,9 @@
       <c r="BW53" s="19"/>
       <c r="BX53" s="19"/>
       <c r="BY53" s="19"/>
-      <c r="BZ53" s="43"/>
-    </row>
-    <row r="54" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BZ53" s="42"/>
+    </row>
+    <row r="54" spans="1:256" customHeight="1" ht="19.57">
       <c r="B54">
         <v>519</v>
       </c>
@@ -3312,14 +3289,14 @@
       <c r="AC54" s="19"/>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19"/>
-      <c r="AF54" s="40"/>
-      <c r="AG54" s="40"/>
-      <c r="AH54" s="40"/>
-      <c r="AI54" s="40"/>
-      <c r="AJ54" s="40"/>
-      <c r="AK54" s="40"/>
-      <c r="AL54" s="40"/>
-      <c r="AM54" s="41"/>
+      <c r="AF54" s="19"/>
+      <c r="AG54" s="19"/>
+      <c r="AH54" s="19"/>
+      <c r="AI54" s="19"/>
+      <c r="AJ54" s="19"/>
+      <c r="AK54" s="19"/>
+      <c r="AL54" s="19"/>
+      <c r="AM54" s="40"/>
       <c r="AN54" s="32"/>
       <c r="AO54" s="32"/>
       <c r="AP54" s="32"/>
@@ -3329,13 +3306,13 @@
       <c r="AT54" s="32"/>
       <c r="AU54" s="32"/>
       <c r="AV54" s="32"/>
-      <c r="AW54" s="42"/>
-      <c r="AX54" s="40"/>
-      <c r="AY54" s="40"/>
-      <c r="AZ54" s="40"/>
-      <c r="BA54" s="40"/>
-      <c r="BB54" s="40"/>
-      <c r="BC54" s="40"/>
+      <c r="AW54" s="41"/>
+      <c r="AX54" s="19"/>
+      <c r="AY54" s="19"/>
+      <c r="AZ54" s="19"/>
+      <c r="BA54" s="19"/>
+      <c r="BB54" s="19"/>
+      <c r="BC54" s="19"/>
       <c r="BD54" s="19"/>
       <c r="BE54" s="19"/>
       <c r="BF54" s="19"/>
@@ -3357,9 +3334,9 @@
       <c r="BV54" s="19"/>
       <c r="BW54" s="19"/>
       <c r="BX54" s="19"/>
-      <c r="BY54" s="43"/>
-    </row>
-    <row r="55" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BY54" s="42"/>
+    </row>
+    <row r="55" spans="1:256" customHeight="1" ht="19.57">
       <c r="B55">
         <v>520</v>
       </c>
@@ -3383,15 +3360,15 @@
       <c r="AC55" s="19"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
-      <c r="AF55" s="40"/>
-      <c r="AG55" s="40"/>
-      <c r="AH55" s="40"/>
-      <c r="AI55" s="40"/>
-      <c r="AJ55" s="40"/>
-      <c r="AK55" s="40"/>
-      <c r="AL55" s="40"/>
-      <c r="AM55" s="40"/>
-      <c r="AN55" s="41"/>
+      <c r="AF55" s="19"/>
+      <c r="AG55" s="19"/>
+      <c r="AH55" s="19"/>
+      <c r="AI55" s="19"/>
+      <c r="AJ55" s="19"/>
+      <c r="AK55" s="19"/>
+      <c r="AL55" s="19"/>
+      <c r="AM55" s="19"/>
+      <c r="AN55" s="40"/>
       <c r="AO55" s="32"/>
       <c r="AP55" s="32"/>
       <c r="AQ55" s="32"/>
@@ -3399,14 +3376,14 @@
       <c r="AS55" s="32"/>
       <c r="AT55" s="32"/>
       <c r="AU55" s="32"/>
-      <c r="AV55" s="42"/>
-      <c r="AW55" s="40"/>
-      <c r="AX55" s="40"/>
-      <c r="AY55" s="40"/>
-      <c r="AZ55" s="40"/>
-      <c r="BA55" s="40"/>
-      <c r="BB55" s="40"/>
-      <c r="BC55" s="40"/>
+      <c r="AV55" s="41"/>
+      <c r="AW55" s="19"/>
+      <c r="AX55" s="19"/>
+      <c r="AY55" s="19"/>
+      <c r="AZ55" s="19"/>
+      <c r="BA55" s="19"/>
+      <c r="BB55" s="19"/>
+      <c r="BC55" s="19"/>
       <c r="BD55" s="19"/>
       <c r="BE55" s="19"/>
       <c r="BF55" s="19"/>
@@ -3427,9 +3404,9 @@
       <c r="BU55" s="19"/>
       <c r="BV55" s="19"/>
       <c r="BW55" s="19"/>
-      <c r="BX55" s="43"/>
-    </row>
-    <row r="56" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BX55" s="42"/>
+    </row>
+    <row r="56" spans="1:256" customHeight="1" ht="19.57">
       <c r="B56">
         <v>521</v>
       </c>
@@ -3452,30 +3429,30 @@
       <c r="AC56" s="19"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
-      <c r="AF56" s="40"/>
-      <c r="AG56" s="40"/>
-      <c r="AH56" s="40"/>
-      <c r="AI56" s="40"/>
-      <c r="AJ56" s="40"/>
-      <c r="AK56" s="40"/>
-      <c r="AL56" s="40"/>
-      <c r="AM56" s="40"/>
-      <c r="AN56" s="40"/>
-      <c r="AO56" s="41"/>
+      <c r="AF56" s="19"/>
+      <c r="AG56" s="19"/>
+      <c r="AH56" s="19"/>
+      <c r="AI56" s="19"/>
+      <c r="AJ56" s="19"/>
+      <c r="AK56" s="19"/>
+      <c r="AL56" s="19"/>
+      <c r="AM56" s="19"/>
+      <c r="AN56" s="19"/>
+      <c r="AO56" s="40"/>
       <c r="AP56" s="32"/>
       <c r="AQ56" s="32"/>
       <c r="AR56" s="32"/>
       <c r="AS56" s="32"/>
       <c r="AT56" s="32"/>
-      <c r="AU56" s="42"/>
-      <c r="AV56" s="40"/>
-      <c r="AW56" s="40"/>
-      <c r="AX56" s="40"/>
-      <c r="AY56" s="40"/>
-      <c r="AZ56" s="40"/>
-      <c r="BA56" s="40"/>
-      <c r="BB56" s="40"/>
-      <c r="BC56" s="40"/>
+      <c r="AU56" s="41"/>
+      <c r="AV56" s="19"/>
+      <c r="AW56" s="19"/>
+      <c r="AX56" s="19"/>
+      <c r="AY56" s="19"/>
+      <c r="AZ56" s="19"/>
+      <c r="BA56" s="19"/>
+      <c r="BB56" s="19"/>
+      <c r="BC56" s="19"/>
       <c r="BD56" s="19"/>
       <c r="BE56" s="19"/>
       <c r="BF56" s="19"/>
@@ -3495,9 +3472,9 @@
       <c r="BT56" s="19"/>
       <c r="BU56" s="19"/>
       <c r="BV56" s="19"/>
-      <c r="BW56" s="43"/>
-    </row>
-    <row r="57" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BW56" s="42"/>
+    </row>
+    <row r="57" spans="1:256" customHeight="1" ht="19.57">
       <c r="B57">
         <v>522</v>
       </c>
@@ -3519,30 +3496,30 @@
       <c r="AC57" s="19"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
-      <c r="AF57" s="40"/>
-      <c r="AG57" s="40"/>
-      <c r="AH57" s="40"/>
-      <c r="AI57" s="40"/>
-      <c r="AJ57" s="40"/>
-      <c r="AK57" s="40"/>
-      <c r="AL57" s="40"/>
-      <c r="AM57" s="40"/>
-      <c r="AN57" s="40"/>
-      <c r="AO57" s="40"/>
-      <c r="AP57" s="41"/>
+      <c r="AF57" s="19"/>
+      <c r="AG57" s="19"/>
+      <c r="AH57" s="19"/>
+      <c r="AI57" s="19"/>
+      <c r="AJ57" s="19"/>
+      <c r="AK57" s="19"/>
+      <c r="AL57" s="19"/>
+      <c r="AM57" s="19"/>
+      <c r="AN57" s="19"/>
+      <c r="AO57" s="19"/>
+      <c r="AP57" s="40"/>
       <c r="AQ57" s="32"/>
       <c r="AR57" s="34"/>
       <c r="AS57" s="32"/>
-      <c r="AT57" s="42"/>
-      <c r="AU57" s="40"/>
-      <c r="AV57" s="40"/>
-      <c r="AW57" s="40"/>
-      <c r="AX57" s="40"/>
-      <c r="AY57" s="40"/>
-      <c r="AZ57" s="40"/>
-      <c r="BA57" s="40"/>
-      <c r="BB57" s="40"/>
-      <c r="BC57" s="40"/>
+      <c r="AT57" s="41"/>
+      <c r="AU57" s="19"/>
+      <c r="AV57" s="19"/>
+      <c r="AW57" s="19"/>
+      <c r="AX57" s="19"/>
+      <c r="AY57" s="19"/>
+      <c r="AZ57" s="19"/>
+      <c r="BA57" s="19"/>
+      <c r="BB57" s="19"/>
+      <c r="BC57" s="19"/>
       <c r="BD57" s="19"/>
       <c r="BE57" s="19"/>
       <c r="BF57" s="19"/>
@@ -3561,9 +3538,9 @@
       <c r="BS57" s="19"/>
       <c r="BT57" s="19"/>
       <c r="BU57" s="19"/>
-      <c r="BV57" s="43"/>
-    </row>
-    <row r="58" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BV57" s="42"/>
+    </row>
+    <row r="58" spans="1:256" customHeight="1" ht="19.57">
       <c r="B58">
         <v>523</v>
       </c>
@@ -3584,30 +3561,30 @@
       <c r="AC58" s="19"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
-      <c r="AF58" s="40"/>
-      <c r="AG58" s="40"/>
-      <c r="AH58" s="40"/>
-      <c r="AI58" s="40"/>
-      <c r="AJ58" s="40"/>
-      <c r="AK58" s="40"/>
-      <c r="AL58" s="40"/>
-      <c r="AM58" s="40"/>
-      <c r="AN58" s="40"/>
-      <c r="AO58" s="40"/>
-      <c r="AP58" s="40"/>
-      <c r="AQ58" s="41"/>
-      <c r="AR58" s="44"/>
-      <c r="AS58" s="42"/>
-      <c r="AT58" s="40"/>
-      <c r="AU58" s="40"/>
-      <c r="AV58" s="40"/>
-      <c r="AW58" s="40"/>
-      <c r="AX58" s="40"/>
-      <c r="AY58" s="40"/>
-      <c r="AZ58" s="40"/>
-      <c r="BA58" s="40"/>
-      <c r="BB58" s="40"/>
-      <c r="BC58" s="40"/>
+      <c r="AF58" s="19"/>
+      <c r="AG58" s="19"/>
+      <c r="AH58" s="19"/>
+      <c r="AI58" s="19"/>
+      <c r="AJ58" s="19"/>
+      <c r="AK58" s="19"/>
+      <c r="AL58" s="19"/>
+      <c r="AM58" s="19"/>
+      <c r="AN58" s="19"/>
+      <c r="AO58" s="19"/>
+      <c r="AP58" s="19"/>
+      <c r="AQ58" s="40"/>
+      <c r="AR58" s="43"/>
+      <c r="AS58" s="41"/>
+      <c r="AT58" s="19"/>
+      <c r="AU58" s="19"/>
+      <c r="AV58" s="19"/>
+      <c r="AW58" s="19"/>
+      <c r="AX58" s="19"/>
+      <c r="AY58" s="19"/>
+      <c r="AZ58" s="19"/>
+      <c r="BA58" s="19"/>
+      <c r="BB58" s="19"/>
+      <c r="BC58" s="19"/>
       <c r="BD58" s="19"/>
       <c r="BE58" s="19"/>
       <c r="BF58" s="19"/>
@@ -3625,9 +3602,9 @@
       <c r="BR58" s="19"/>
       <c r="BS58" s="19"/>
       <c r="BT58" s="19"/>
-      <c r="BU58" s="43"/>
-    </row>
-    <row r="59" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BU58" s="42"/>
+    </row>
+    <row r="59" spans="1:256" customHeight="1" ht="19.57">
       <c r="B59">
         <v>524</v>
       </c>
@@ -3647,34 +3624,34 @@
       <c r="AC59" s="19"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
-      <c r="AF59" s="40"/>
-      <c r="AG59" s="40"/>
-      <c r="AH59" s="40"/>
-      <c r="AI59" s="40"/>
-      <c r="AJ59" s="40"/>
-      <c r="AK59" s="40"/>
-      <c r="AL59" s="40"/>
-      <c r="AM59" s="40"/>
-      <c r="AN59" s="40"/>
-      <c r="AO59" s="40"/>
-      <c r="AP59" s="40"/>
-      <c r="AQ59" s="40"/>
-      <c r="AR59" s="45" t="inlineStr">
+      <c r="AF59" s="19"/>
+      <c r="AG59" s="19"/>
+      <c r="AH59" s="19"/>
+      <c r="AI59" s="19"/>
+      <c r="AJ59" s="19"/>
+      <c r="AK59" s="19"/>
+      <c r="AL59" s="19"/>
+      <c r="AM59" s="19"/>
+      <c r="AN59" s="19"/>
+      <c r="AO59" s="19"/>
+      <c r="AP59" s="19"/>
+      <c r="AQ59" s="19"/>
+      <c r="AR59" s="44" t="inlineStr">
         <is>
           <t>南</t>
         </is>
       </c>
-      <c r="AS59" s="40"/>
-      <c r="AT59" s="40"/>
-      <c r="AU59" s="40"/>
-      <c r="AV59" s="40"/>
-      <c r="AW59" s="40"/>
-      <c r="AX59" s="40"/>
-      <c r="AY59" s="40"/>
-      <c r="AZ59" s="40"/>
-      <c r="BA59" s="40"/>
-      <c r="BB59" s="40"/>
-      <c r="BC59" s="40"/>
+      <c r="AS59" s="19"/>
+      <c r="AT59" s="19"/>
+      <c r="AU59" s="19"/>
+      <c r="AV59" s="19"/>
+      <c r="AW59" s="19"/>
+      <c r="AX59" s="19"/>
+      <c r="AY59" s="19"/>
+      <c r="AZ59" s="19"/>
+      <c r="BA59" s="19"/>
+      <c r="BB59" s="19"/>
+      <c r="BC59" s="19"/>
       <c r="BD59" s="19"/>
       <c r="BE59" s="19"/>
       <c r="BF59" s="19"/>
@@ -3691,9 +3668,9 @@
       <c r="BQ59" s="19"/>
       <c r="BR59" s="19"/>
       <c r="BS59" s="19"/>
-      <c r="BT59" s="43"/>
-    </row>
-    <row r="60" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BT59" s="42"/>
+    </row>
+    <row r="60" spans="1:256" customHeight="1" ht="19.57">
       <c r="B60">
         <v>525</v>
       </c>
@@ -3724,7 +3701,7 @@
       <c r="AO60" s="19"/>
       <c r="AP60" s="19"/>
       <c r="AQ60" s="19"/>
-      <c r="AR60" s="46"/>
+      <c r="AR60" s="45"/>
       <c r="AS60" s="19"/>
       <c r="AT60" s="19"/>
       <c r="AU60" s="19"/>
@@ -3751,9 +3728,9 @@
       <c r="BP60" s="19"/>
       <c r="BQ60" s="19"/>
       <c r="BR60" s="19"/>
-      <c r="BS60" s="43"/>
-    </row>
-    <row r="61" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BS60" s="42"/>
+    </row>
+    <row r="61" spans="1:256" customHeight="1" ht="19.57">
       <c r="B61">
         <v>526</v>
       </c>
@@ -3809,9 +3786,9 @@
       <c r="BO61" s="19"/>
       <c r="BP61" s="19"/>
       <c r="BQ61" s="19"/>
-      <c r="BR61" s="43"/>
-    </row>
-    <row r="62" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BR61" s="42"/>
+    </row>
+    <row r="62" spans="1:256" customHeight="1" ht="19.57">
       <c r="B62">
         <v>527</v>
       </c>
@@ -3865,9 +3842,9 @@
       <c r="BN62" s="19"/>
       <c r="BO62" s="19"/>
       <c r="BP62" s="19"/>
-      <c r="BQ62" s="43"/>
-    </row>
-    <row r="63" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BQ62" s="42"/>
+    </row>
+    <row r="63" spans="1:256" customHeight="1" ht="19.57">
       <c r="B63">
         <v>528</v>
       </c>
@@ -3919,9 +3896,9 @@
       <c r="BM63" s="19"/>
       <c r="BN63" s="19"/>
       <c r="BO63" s="19"/>
-      <c r="BP63" s="43"/>
-    </row>
-    <row r="64" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BP63" s="42"/>
+    </row>
+    <row r="64" spans="1:256" customHeight="1" ht="19.57">
       <c r="B64">
         <v>529</v>
       </c>
@@ -3971,9 +3948,9 @@
       <c r="BL64" s="19"/>
       <c r="BM64" s="19"/>
       <c r="BN64" s="19"/>
-      <c r="BO64" s="43"/>
-    </row>
-    <row r="65" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BO64" s="42"/>
+    </row>
+    <row r="65" spans="1:256" customHeight="1" ht="19.57">
       <c r="B65">
         <v>530</v>
       </c>
@@ -4021,9 +3998,9 @@
       <c r="BK65" s="19"/>
       <c r="BL65" s="19"/>
       <c r="BM65" s="19"/>
-      <c r="BN65" s="43"/>
-    </row>
-    <row r="66" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BN65" s="42"/>
+    </row>
+    <row r="66" spans="1:256" customHeight="1" ht="19.57">
       <c r="B66">
         <v>531</v>
       </c>
@@ -4069,9 +4046,9 @@
       <c r="BJ66" s="19"/>
       <c r="BK66" s="19"/>
       <c r="BL66" s="19"/>
-      <c r="BM66" s="43"/>
-    </row>
-    <row r="67" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BM66" s="42"/>
+    </row>
+    <row r="67" spans="1:256" customHeight="1" ht="19.57">
       <c r="B67">
         <v>532</v>
       </c>
@@ -4115,9 +4092,9 @@
       <c r="BI67" s="19"/>
       <c r="BJ67" s="19"/>
       <c r="BK67" s="19"/>
-      <c r="BL67" s="43"/>
-    </row>
-    <row r="68" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BL67" s="42"/>
+    </row>
+    <row r="68" spans="1:256" customHeight="1" ht="19.57">
       <c r="B68">
         <v>533</v>
       </c>
@@ -4159,16 +4136,16 @@
       <c r="BH68" s="19"/>
       <c r="BI68" s="19"/>
       <c r="BJ68" s="19"/>
-      <c r="BK68" s="43"/>
-    </row>
-    <row r="69" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BK68" s="42"/>
+    </row>
+    <row r="69" spans="1:256" customHeight="1" ht="19.57">
       <c r="B69">
         <v>534</v>
       </c>
-      <c r="Z69" s="47"/>
-      <c r="AA69" s="40"/>
-      <c r="AB69" s="40"/>
-      <c r="AC69" s="40"/>
+      <c r="Z69" s="39"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="19"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
       <c r="AF69" s="19"/>
@@ -4201,15 +4178,15 @@
       <c r="BG69" s="19"/>
       <c r="BH69" s="19"/>
       <c r="BI69" s="19"/>
-      <c r="BJ69" s="43"/>
-    </row>
-    <row r="70" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BJ69" s="42"/>
+    </row>
+    <row r="70" spans="1:256" customHeight="1" ht="19.57">
       <c r="B70">
         <v>535</v>
       </c>
-      <c r="AA70" s="47"/>
-      <c r="AB70" s="40"/>
-      <c r="AC70" s="40"/>
+      <c r="AA70" s="39"/>
+      <c r="AB70" s="19"/>
+      <c r="AC70" s="19"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
       <c r="AF70" s="19"/>
@@ -4241,14 +4218,14 @@
       <c r="BF70" s="19"/>
       <c r="BG70" s="19"/>
       <c r="BH70" s="19"/>
-      <c r="BI70" s="43"/>
-    </row>
-    <row r="71" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BI70" s="42"/>
+    </row>
+    <row r="71" spans="1:256" customHeight="1" ht="19.57">
       <c r="B71">
         <v>536</v>
       </c>
-      <c r="AB71" s="47"/>
-      <c r="AC71" s="40"/>
+      <c r="AB71" s="39"/>
+      <c r="AC71" s="19"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
@@ -4279,14 +4256,13 @@
       <c r="BE71" s="19"/>
       <c r="BF71" s="19"/>
       <c r="BG71" s="19"/>
-      <c r="BH71" s="43"/>
-    </row>
-    <row r="72" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BH71" s="42"/>
+    </row>
+    <row r="72" spans="1:256" customHeight="1" ht="19.57">
       <c r="B72">
         <v>537</v>
       </c>
-      <c r="V72" s="48"/>
-      <c r="AC72" s="47"/>
+      <c r="AC72" s="39"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
@@ -4316,9 +4292,9 @@
       <c r="BD72" s="19"/>
       <c r="BE72" s="19"/>
       <c r="BF72" s="19"/>
-      <c r="BG72" s="43"/>
-    </row>
-    <row r="73" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BG72" s="42"/>
+    </row>
+    <row r="73" spans="1:256" customHeight="1" ht="19.57">
       <c r="B73">
         <v>538</v>
       </c>
@@ -4350,9 +4326,9 @@
       <c r="BC73" s="19"/>
       <c r="BD73" s="19"/>
       <c r="BE73" s="19"/>
-      <c r="BF73" s="43"/>
-    </row>
-    <row r="74" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BF73" s="42"/>
+    </row>
+    <row r="74" spans="1:256" customHeight="1" ht="19.57">
       <c r="B74">
         <v>539</v>
       </c>
@@ -4382,9 +4358,9 @@
       <c r="BB74" s="19"/>
       <c r="BC74" s="19"/>
       <c r="BD74" s="19"/>
-      <c r="BE74" s="43"/>
-    </row>
-    <row r="75" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BE74" s="42"/>
+    </row>
+    <row r="75" spans="1:256" customHeight="1" ht="19.57">
       <c r="B75">
         <v>540</v>
       </c>
@@ -4412,9 +4388,9 @@
       <c r="BA75" s="19"/>
       <c r="BB75" s="19"/>
       <c r="BC75" s="19"/>
-      <c r="BD75" s="43"/>
-    </row>
-    <row r="76" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BD75" s="42"/>
+    </row>
+    <row r="76" spans="1:256" customHeight="1" ht="19.57">
       <c r="B76">
         <v>541</v>
       </c>
@@ -4440,9 +4416,9 @@
       <c r="AZ76" s="19"/>
       <c r="BA76" s="19"/>
       <c r="BB76" s="19"/>
-      <c r="BC76" s="43"/>
-    </row>
-    <row r="77" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BC76" s="42"/>
+    </row>
+    <row r="77" spans="1:256" customHeight="1" ht="19.57">
       <c r="B77">
         <v>542</v>
       </c>
@@ -4466,9 +4442,9 @@
       <c r="AY77" s="19"/>
       <c r="AZ77" s="19"/>
       <c r="BA77" s="19"/>
-      <c r="BB77" s="43"/>
-    </row>
-    <row r="78" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BB77" s="42"/>
+    </row>
+    <row r="78" spans="1:256" customHeight="1" ht="19.57">
       <c r="B78">
         <v>543</v>
       </c>
@@ -4490,9 +4466,9 @@
       <c r="AX78" s="19"/>
       <c r="AY78" s="19"/>
       <c r="AZ78" s="19"/>
-      <c r="BA78" s="43"/>
-    </row>
-    <row r="79" spans="1:236" customHeight="1" ht="19.57">
+      <c r="BA78" s="42"/>
+    </row>
+    <row r="79" spans="1:256" customHeight="1" ht="19.57">
       <c r="B79">
         <v>544</v>
       </c>
@@ -4512,9 +4488,9 @@
       <c r="AW79" s="19"/>
       <c r="AX79" s="19"/>
       <c r="AY79" s="19"/>
-      <c r="AZ79" s="43"/>
-    </row>
-    <row r="80" spans="1:236" customHeight="1" ht="19.57">
+      <c r="AZ79" s="42"/>
+    </row>
+    <row r="80" spans="1:256" customHeight="1" ht="19.57">
       <c r="B80">
         <v>545</v>
       </c>
@@ -4532,9 +4508,9 @@
       <c r="AV80" s="19"/>
       <c r="AW80" s="19"/>
       <c r="AX80" s="19"/>
-      <c r="AY80" s="43"/>
-    </row>
-    <row r="81" spans="1:236" customHeight="1" ht="19.57">
+      <c r="AY80" s="42"/>
+    </row>
+    <row r="81" spans="1:256" customHeight="1" ht="19.57">
       <c r="B81">
         <v>546</v>
       </c>
@@ -4550,9 +4526,9 @@
       <c r="AU81" s="19"/>
       <c r="AV81" s="19"/>
       <c r="AW81" s="19"/>
-      <c r="AX81" s="43"/>
-    </row>
-    <row r="82" spans="1:236" customHeight="1" ht="19.57">
+      <c r="AX81" s="42"/>
+    </row>
+    <row r="82" spans="1:256" customHeight="1" ht="19.57">
       <c r="B82">
         <v>547</v>
       </c>
@@ -4566,9 +4542,9 @@
       <c r="AT82" s="19"/>
       <c r="AU82" s="19"/>
       <c r="AV82" s="19"/>
-      <c r="AW82" s="43"/>
-    </row>
-    <row r="83" spans="1:236" customHeight="1" ht="19.57">
+      <c r="AW82" s="42"/>
+    </row>
+    <row r="83" spans="1:256" customHeight="1" ht="19.57">
       <c r="B83">
         <v>548</v>
       </c>
@@ -4580,9 +4556,9 @@
       <c r="AS83" s="19"/>
       <c r="AT83" s="19"/>
       <c r="AU83" s="19"/>
-      <c r="AV83" s="43"/>
-    </row>
-    <row r="84" spans="1:236" customHeight="1" ht="19.57">
+      <c r="AV83" s="42"/>
+    </row>
+    <row r="84" spans="1:256" customHeight="1" ht="19.57">
       <c r="B84">
         <v>549</v>
       </c>
@@ -4592,9 +4568,9 @@
       <c r="AR84" s="19"/>
       <c r="AS84" s="19"/>
       <c r="AT84" s="19"/>
-      <c r="AU84" s="43"/>
-    </row>
-    <row r="85" spans="1:236" customHeight="1" ht="19.57">
+      <c r="AU84" s="42"/>
+    </row>
+    <row r="85" spans="1:256" customHeight="1" ht="19.57">
       <c r="B85">
         <v>550</v>
       </c>
@@ -4602,1799 +4578,1799 @@
       <c r="AQ85" s="19"/>
       <c r="AR85" s="19"/>
       <c r="AS85" s="19"/>
-      <c r="AT85" s="43"/>
-    </row>
-    <row r="86" spans="1:236" customHeight="1" ht="19.57">
+      <c r="AT85" s="42"/>
+    </row>
+    <row r="86" spans="1:256" customHeight="1" ht="19.57">
       <c r="B86">
         <v>551</v>
       </c>
       <c r="AQ86" s="39"/>
       <c r="AR86" s="19"/>
-      <c r="AS86" s="43"/>
-    </row>
-    <row r="87" spans="1:236" customHeight="1" ht="19.57">
+      <c r="AS86" s="42"/>
+    </row>
+    <row r="87" spans="1:256" customHeight="1" ht="19.57">
       <c r="B87">
         <v>552</v>
       </c>
-      <c r="AR87" s="49"/>
-    </row>
-    <row r="88" spans="1:236" customHeight="1" ht="19.57">
+      <c r="AR87" s="46"/>
+    </row>
+    <row r="88" spans="1:256" customHeight="1" ht="19.57">
       <c r="B88">
         <v>553</v>
       </c>
     </row>
-    <row r="89" spans="1:236" customHeight="1" ht="19.57">
+    <row r="89" spans="1:256" customHeight="1" ht="19.57">
       <c r="B89">
         <v>554</v>
       </c>
       <c r="BJ89" s="19"/>
     </row>
-    <row r="90" spans="1:236" customHeight="1" ht="19.57">
+    <row r="90" spans="1:256" customHeight="1" ht="19.57">
       <c r="B90">
         <v>555</v>
       </c>
     </row>
-    <row r="91" spans="1:236" customHeight="1" ht="19.57">
+    <row r="91" spans="1:256" customHeight="1" ht="19.57">
       <c r="B91">
         <v>556</v>
       </c>
     </row>
-    <row r="92" spans="1:236" customHeight="1" ht="19.57">
+    <row r="92" spans="1:256" customHeight="1" ht="19.57">
       <c r="B92">
         <v>557</v>
       </c>
     </row>
-    <row r="93" spans="1:236" customHeight="1" ht="19.57">
+    <row r="93" spans="1:256" customHeight="1" ht="19.57">
       <c r="B93">
         <v>558</v>
       </c>
     </row>
-    <row r="94" spans="1:236" customHeight="1" ht="19.57">
+    <row r="94" spans="1:256" customHeight="1" ht="19.57">
       <c r="B94">
         <v>559</v>
       </c>
     </row>
-    <row r="95" spans="1:236" customHeight="1" ht="19.57">
+    <row r="95" spans="1:256" customHeight="1" ht="19.57">
       <c r="B95">
         <v>560</v>
       </c>
     </row>
-    <row r="96" spans="1:236" customHeight="1" ht="19.57">
+    <row r="96" spans="1:256" customHeight="1" ht="19.57">
       <c r="B96">
         <v>561</v>
       </c>
     </row>
-    <row r="97" spans="1:236" customHeight="1" ht="19.57">
+    <row r="97" spans="1:256" customHeight="1" ht="19.57">
       <c r="B97">
         <v>562</v>
       </c>
     </row>
-    <row r="98" spans="1:236" customHeight="1" ht="19.57">
+    <row r="98" spans="1:256" customHeight="1" ht="19.57">
       <c r="B98">
         <v>563</v>
       </c>
     </row>
-    <row r="99" spans="1:236" customHeight="1" ht="19.57">
+    <row r="99" spans="1:256" customHeight="1" ht="19.57">
       <c r="B99">
         <v>564</v>
       </c>
     </row>
-    <row r="100" spans="1:236" customHeight="1" ht="19.57">
+    <row r="100" spans="1:256" customHeight="1" ht="19.57">
       <c r="B100">
         <v>565</v>
       </c>
     </row>
-    <row r="101" spans="1:236" customHeight="1" ht="19.57">
+    <row r="101" spans="1:256" customHeight="1" ht="19.57">
       <c r="B101">
         <v>566</v>
       </c>
     </row>
-    <row r="102" spans="1:236" customHeight="1" ht="19.57">
+    <row r="102" spans="1:256" customHeight="1" ht="19.57">
       <c r="B102">
         <v>567</v>
       </c>
     </row>
-    <row r="103" spans="1:236" customHeight="1" ht="19.57">
+    <row r="103" spans="1:256" customHeight="1" ht="19.57">
       <c r="B103">
         <v>568</v>
       </c>
     </row>
-    <row r="104" spans="1:236" customHeight="1" ht="19.57">
+    <row r="104" spans="1:256" customHeight="1" ht="19.57">
       <c r="B104">
         <v>569</v>
       </c>
     </row>
-    <row r="105" spans="1:236" customHeight="1" ht="19.57">
+    <row r="105" spans="1:256" customHeight="1" ht="19.57">
       <c r="B105">
         <v>570</v>
       </c>
     </row>
-    <row r="106" spans="1:236" customHeight="1" ht="19.57">
+    <row r="106" spans="1:256" customHeight="1" ht="19.57">
       <c r="B106">
         <v>571</v>
       </c>
     </row>
-    <row r="107" spans="1:236" customHeight="1" ht="19.57">
+    <row r="107" spans="1:256" customHeight="1" ht="19.57">
       <c r="B107">
         <v>572</v>
       </c>
     </row>
-    <row r="108" spans="1:236" customHeight="1" ht="19.57">
+    <row r="108" spans="1:256" customHeight="1" ht="19.57">
       <c r="B108">
         <v>573</v>
       </c>
     </row>
-    <row r="109" spans="1:236" customHeight="1" ht="19.57">
+    <row r="109" spans="1:256" customHeight="1" ht="19.57">
       <c r="B109">
         <v>574</v>
       </c>
     </row>
-    <row r="110" spans="1:236" customHeight="1" ht="19.57">
+    <row r="110" spans="1:256" customHeight="1" ht="19.57">
       <c r="B110">
         <v>575</v>
       </c>
     </row>
-    <row r="111" spans="1:236" customHeight="1" ht="19.57">
+    <row r="111" spans="1:256" customHeight="1" ht="19.57">
       <c r="B111">
         <v>576</v>
       </c>
     </row>
-    <row r="112" spans="1:236" customHeight="1" ht="19.57">
+    <row r="112" spans="1:256" customHeight="1" ht="19.57">
       <c r="B112">
         <v>577</v>
       </c>
     </row>
-    <row r="113" spans="1:236" customHeight="1" ht="19.57">
+    <row r="113" spans="1:256" customHeight="1" ht="19.57">
       <c r="B113">
         <v>578</v>
       </c>
     </row>
-    <row r="114" spans="1:236" customHeight="1" ht="19.57">
+    <row r="114" spans="1:256" customHeight="1" ht="19.57">
       <c r="B114">
         <v>579</v>
       </c>
     </row>
-    <row r="115" spans="1:236" customHeight="1" ht="19.57">
+    <row r="115" spans="1:256" customHeight="1" ht="19.57">
       <c r="B115">
         <v>580</v>
       </c>
     </row>
-    <row r="116" spans="1:236" customHeight="1" ht="19.57">
+    <row r="116" spans="1:256" customHeight="1" ht="19.57">
       <c r="B116">
         <v>581</v>
       </c>
     </row>
-    <row r="117" spans="1:236" customHeight="1" ht="19.57">
+    <row r="117" spans="1:256" customHeight="1" ht="19.57">
       <c r="B117">
         <v>582</v>
       </c>
     </row>
-    <row r="118" spans="1:236" customHeight="1" ht="19.57">
+    <row r="118" spans="1:256" customHeight="1" ht="19.57">
       <c r="B118">
         <v>583</v>
       </c>
     </row>
-    <row r="119" spans="1:236" customHeight="1" ht="19.57">
+    <row r="119" spans="1:256" customHeight="1" ht="19.57">
       <c r="B119">
         <v>584</v>
       </c>
     </row>
-    <row r="120" spans="1:236" customHeight="1" ht="19.57">
+    <row r="120" spans="1:256" customHeight="1" ht="19.57">
       <c r="B120">
         <v>585</v>
       </c>
     </row>
-    <row r="121" spans="1:236" customHeight="1" ht="19.57">
+    <row r="121" spans="1:256" customHeight="1" ht="19.57">
       <c r="B121">
         <v>586</v>
       </c>
     </row>
-    <row r="122" spans="1:236" customHeight="1" ht="19.57">
+    <row r="122" spans="1:256" customHeight="1" ht="19.57">
       <c r="B122">
         <v>587</v>
       </c>
     </row>
-    <row r="123" spans="1:236" customHeight="1" ht="19.57">
+    <row r="123" spans="1:256" customHeight="1" ht="19.57">
       <c r="B123">
         <v>588</v>
       </c>
     </row>
-    <row r="124" spans="1:236" customHeight="1" ht="19.57">
+    <row r="124" spans="1:256" customHeight="1" ht="19.57">
       <c r="B124">
         <v>589</v>
       </c>
     </row>
-    <row r="125" spans="1:236" customHeight="1" ht="19.57">
+    <row r="125" spans="1:256" customHeight="1" ht="19.57">
       <c r="B125">
         <v>590</v>
       </c>
     </row>
-    <row r="126" spans="1:236" customHeight="1" ht="19.57">
+    <row r="126" spans="1:256" customHeight="1" ht="19.57">
       <c r="B126">
         <v>591</v>
       </c>
     </row>
-    <row r="127" spans="1:236" customHeight="1" ht="19.57">
+    <row r="127" spans="1:256" customHeight="1" ht="19.57">
       <c r="B127">
         <v>592</v>
       </c>
     </row>
-    <row r="128" spans="1:236" customHeight="1" ht="19.57">
+    <row r="128" spans="1:256" customHeight="1" ht="19.57">
       <c r="B128">
         <v>593</v>
       </c>
     </row>
-    <row r="129" spans="1:236" customHeight="1" ht="19.57">
+    <row r="129" spans="1:256" customHeight="1" ht="19.57">
       <c r="B129">
         <v>594</v>
       </c>
     </row>
-    <row r="130" spans="1:236" customHeight="1" ht="19.57">
+    <row r="130" spans="1:256" customHeight="1" ht="19.57">
       <c r="B130">
         <v>595</v>
       </c>
     </row>
-    <row r="131" spans="1:236" customHeight="1" ht="19.57">
+    <row r="131" spans="1:256" customHeight="1" ht="19.57">
       <c r="B131">
         <v>596</v>
       </c>
     </row>
-    <row r="132" spans="1:236" customHeight="1" ht="19.57">
+    <row r="132" spans="1:256" customHeight="1" ht="19.57">
       <c r="B132">
         <v>597</v>
       </c>
     </row>
-    <row r="133" spans="1:236" customHeight="1" ht="19.57">
+    <row r="133" spans="1:256" customHeight="1" ht="19.57">
       <c r="B133">
         <v>598</v>
       </c>
     </row>
-    <row r="134" spans="1:236" customHeight="1" ht="19.57">
+    <row r="134" spans="1:256" customHeight="1" ht="19.57">
       <c r="B134">
         <v>599</v>
       </c>
     </row>
-    <row r="135" spans="1:236" customHeight="1" ht="19.57">
+    <row r="135" spans="1:256" customHeight="1" ht="19.57">
       <c r="B135">
         <v>600</v>
       </c>
     </row>
-    <row r="136" spans="1:236" customHeight="1" ht="19.57">
+    <row r="136" spans="1:256" customHeight="1" ht="19.57">
       <c r="B136">
         <v>601</v>
       </c>
     </row>
-    <row r="137" spans="1:236" customHeight="1" ht="19.57">
+    <row r="137" spans="1:256" customHeight="1" ht="19.57">
       <c r="B137">
         <v>602</v>
       </c>
     </row>
-    <row r="138" spans="1:236" customHeight="1" ht="19.57">
+    <row r="138" spans="1:256" customHeight="1" ht="19.57">
       <c r="B138">
         <v>603</v>
       </c>
     </row>
-    <row r="139" spans="1:236" customHeight="1" ht="19.57">
+    <row r="139" spans="1:256" customHeight="1" ht="19.57">
       <c r="B139">
         <v>604</v>
       </c>
     </row>
-    <row r="140" spans="1:236" customHeight="1" ht="19.57">
+    <row r="140" spans="1:256" customHeight="1" ht="19.57">
       <c r="B140">
         <v>605</v>
       </c>
     </row>
-    <row r="141" spans="1:236" customHeight="1" ht="19.57">
+    <row r="141" spans="1:256" customHeight="1" ht="19.57">
       <c r="B141">
         <v>606</v>
       </c>
     </row>
-    <row r="142" spans="1:236" customHeight="1" ht="19.57">
+    <row r="142" spans="1:256" customHeight="1" ht="19.57">
       <c r="B142">
         <v>607</v>
       </c>
     </row>
-    <row r="143" spans="1:236" customHeight="1" ht="19.57">
+    <row r="143" spans="1:256" customHeight="1" ht="19.57">
       <c r="B143">
         <v>608</v>
       </c>
     </row>
-    <row r="144" spans="1:236" customHeight="1" ht="19.57">
+    <row r="144" spans="1:256" customHeight="1" ht="19.57">
       <c r="B144">
         <v>609</v>
       </c>
     </row>
-    <row r="145" spans="1:236" customHeight="1" ht="19.57">
+    <row r="145" spans="1:256" customHeight="1" ht="19.57">
       <c r="B145">
         <v>610</v>
       </c>
     </row>
-    <row r="146" spans="1:236" customHeight="1" ht="19.57">
+    <row r="146" spans="1:256" customHeight="1" ht="19.57">
       <c r="B146">
         <v>611</v>
       </c>
     </row>
-    <row r="147" spans="1:236" customHeight="1" ht="19.57">
+    <row r="147" spans="1:256" customHeight="1" ht="19.57">
       <c r="B147">
         <v>612</v>
       </c>
     </row>
-    <row r="148" spans="1:236" customHeight="1" ht="19.57">
+    <row r="148" spans="1:256" customHeight="1" ht="19.57">
       <c r="B148">
         <v>613</v>
       </c>
     </row>
-    <row r="149" spans="1:236" customHeight="1" ht="19.57">
+    <row r="149" spans="1:256" customHeight="1" ht="19.57">
       <c r="B149">
         <v>614</v>
       </c>
     </row>
-    <row r="150" spans="1:236" customHeight="1" ht="19.57">
+    <row r="150" spans="1:256" customHeight="1" ht="19.57">
       <c r="B150">
         <v>615</v>
       </c>
     </row>
-    <row r="151" spans="1:236" customHeight="1" ht="19.57">
+    <row r="151" spans="1:256" customHeight="1" ht="19.57">
       <c r="B151">
         <v>616</v>
       </c>
     </row>
-    <row r="152" spans="1:236" customHeight="1" ht="19.57">
+    <row r="152" spans="1:256" customHeight="1" ht="19.57">
       <c r="B152">
         <v>617</v>
       </c>
     </row>
-    <row r="153" spans="1:236" customHeight="1" ht="19.57">
+    <row r="153" spans="1:256" customHeight="1" ht="19.57">
       <c r="B153">
         <v>618</v>
       </c>
     </row>
-    <row r="154" spans="1:236" customHeight="1" ht="19.57">
+    <row r="154" spans="1:256" customHeight="1" ht="19.57">
       <c r="B154">
         <v>619</v>
       </c>
     </row>
-    <row r="155" spans="1:236" customHeight="1" ht="19.57">
+    <row r="155" spans="1:256" customHeight="1" ht="19.57">
       <c r="B155">
         <v>620</v>
       </c>
     </row>
-    <row r="156" spans="1:236" customHeight="1" ht="19.57">
+    <row r="156" spans="1:256" customHeight="1" ht="19.57">
       <c r="B156">
         <v>621</v>
       </c>
     </row>
-    <row r="157" spans="1:236" customHeight="1" ht="19.57">
+    <row r="157" spans="1:256" customHeight="1" ht="19.57">
       <c r="B157">
         <v>622</v>
       </c>
     </row>
-    <row r="158" spans="1:236" customHeight="1" ht="19.57">
+    <row r="158" spans="1:256" customHeight="1" ht="19.57">
       <c r="B158">
         <v>623</v>
       </c>
     </row>
-    <row r="159" spans="1:236" customHeight="1" ht="19.57">
+    <row r="159" spans="1:256" customHeight="1" ht="19.57">
       <c r="B159">
         <v>624</v>
       </c>
     </row>
-    <row r="160" spans="1:236" customHeight="1" ht="19.57">
+    <row r="160" spans="1:256" customHeight="1" ht="19.57">
       <c r="B160">
         <v>625</v>
       </c>
     </row>
-    <row r="161" spans="1:236" customHeight="1" ht="19.57">
+    <row r="161" spans="1:256" customHeight="1" ht="19.57">
       <c r="B161">
         <v>626</v>
       </c>
     </row>
-    <row r="162" spans="1:236" customHeight="1" ht="19.57">
+    <row r="162" spans="1:256" customHeight="1" ht="19.57">
       <c r="B162">
         <v>627</v>
       </c>
     </row>
-    <row r="163" spans="1:236" customHeight="1" ht="19.57">
+    <row r="163" spans="1:256" customHeight="1" ht="19.57">
       <c r="B163">
         <v>628</v>
       </c>
     </row>
-    <row r="164" spans="1:236" customHeight="1" ht="19.57">
+    <row r="164" spans="1:256" customHeight="1" ht="19.57">
       <c r="B164">
         <v>629</v>
       </c>
     </row>
-    <row r="165" spans="1:236" customHeight="1" ht="19.57">
+    <row r="165" spans="1:256" customHeight="1" ht="19.57">
       <c r="B165">
         <v>630</v>
       </c>
     </row>
-    <row r="166" spans="1:236" customHeight="1" ht="19.57">
+    <row r="166" spans="1:256" customHeight="1" ht="19.57">
       <c r="B166">
         <v>631</v>
       </c>
     </row>
-    <row r="167" spans="1:236" customHeight="1" ht="19.57">
+    <row r="167" spans="1:256" customHeight="1" ht="19.57">
       <c r="B167">
         <v>632</v>
       </c>
     </row>
-    <row r="168" spans="1:236" customHeight="1" ht="19.57">
+    <row r="168" spans="1:256" customHeight="1" ht="19.57">
       <c r="B168">
         <v>633</v>
       </c>
     </row>
-    <row r="169" spans="1:236" customHeight="1" ht="19.57">
+    <row r="169" spans="1:256" customHeight="1" ht="19.57">
       <c r="B169">
         <v>634</v>
       </c>
     </row>
-    <row r="170" spans="1:236" customHeight="1" ht="19.57">
+    <row r="170" spans="1:256" customHeight="1" ht="19.57">
       <c r="B170">
         <v>635</v>
       </c>
     </row>
-    <row r="171" spans="1:236" customHeight="1" ht="19.57">
+    <row r="171" spans="1:256" customHeight="1" ht="19.57">
       <c r="B171">
         <v>636</v>
       </c>
     </row>
-    <row r="172" spans="1:236" customHeight="1" ht="19.57">
+    <row r="172" spans="1:256" customHeight="1" ht="19.57">
       <c r="B172">
         <v>637</v>
       </c>
     </row>
-    <row r="173" spans="1:236" customHeight="1" ht="19.57">
+    <row r="173" spans="1:256" customHeight="1" ht="19.57">
       <c r="B173">
         <v>638</v>
       </c>
     </row>
-    <row r="174" spans="1:236" customHeight="1" ht="19.57">
+    <row r="174" spans="1:256" customHeight="1" ht="19.57">
       <c r="B174">
         <v>639</v>
       </c>
     </row>
-    <row r="175" spans="1:236" customHeight="1" ht="19.57">
+    <row r="175" spans="1:256" customHeight="1" ht="19.57">
       <c r="B175">
         <v>640</v>
       </c>
     </row>
-    <row r="176" spans="1:236" customHeight="1" ht="19.57">
+    <row r="176" spans="1:256" customHeight="1" ht="19.57">
       <c r="B176">
         <v>641</v>
       </c>
     </row>
-    <row r="177" spans="1:236" customHeight="1" ht="19.57">
+    <row r="177" spans="1:256" customHeight="1" ht="19.57">
       <c r="B177">
         <v>642</v>
       </c>
     </row>
-    <row r="178" spans="1:236" customHeight="1" ht="19.57">
+    <row r="178" spans="1:256" customHeight="1" ht="19.57">
       <c r="B178">
         <v>643</v>
       </c>
     </row>
-    <row r="179" spans="1:236" customHeight="1" ht="19.57">
+    <row r="179" spans="1:256" customHeight="1" ht="19.57">
       <c r="B179">
         <v>644</v>
       </c>
     </row>
-    <row r="180" spans="1:236" customHeight="1" ht="19.57">
+    <row r="180" spans="1:256" customHeight="1" ht="19.57">
       <c r="B180">
         <v>645</v>
       </c>
     </row>
-    <row r="181" spans="1:236" customHeight="1" ht="19.57">
+    <row r="181" spans="1:256" customHeight="1" ht="19.57">
       <c r="B181">
         <v>646</v>
       </c>
     </row>
-    <row r="182" spans="1:236" customHeight="1" ht="19.57">
+    <row r="182" spans="1:256" customHeight="1" ht="19.57">
       <c r="B182">
         <v>647</v>
       </c>
     </row>
-    <row r="183" spans="1:236" customHeight="1" ht="19.57">
+    <row r="183" spans="1:256" customHeight="1" ht="19.57">
       <c r="B183">
         <v>648</v>
       </c>
     </row>
-    <row r="184" spans="1:236" customHeight="1" ht="19.57">
+    <row r="184" spans="1:256" customHeight="1" ht="19.57">
       <c r="B184">
         <v>649</v>
       </c>
     </row>
-    <row r="185" spans="1:236" customHeight="1" ht="19.57">
+    <row r="185" spans="1:256" customHeight="1" ht="19.57">
       <c r="B185">
         <v>650</v>
       </c>
     </row>
-    <row r="186" spans="1:236" customHeight="1" ht="19.57">
+    <row r="186" spans="1:256" customHeight="1" ht="19.57">
       <c r="B186">
         <v>651</v>
       </c>
     </row>
-    <row r="187" spans="1:236" customHeight="1" ht="19.57">
+    <row r="187" spans="1:256" customHeight="1" ht="19.57">
       <c r="B187">
         <v>652</v>
       </c>
     </row>
-    <row r="188" spans="1:236" customHeight="1" ht="19.57">
+    <row r="188" spans="1:256" customHeight="1" ht="19.57">
       <c r="B188">
         <v>653</v>
       </c>
     </row>
-    <row r="189" spans="1:236" customHeight="1" ht="19.57">
+    <row r="189" spans="1:256" customHeight="1" ht="19.57">
       <c r="B189">
         <v>654</v>
       </c>
     </row>
-    <row r="190" spans="1:236" customHeight="1" ht="19.57">
+    <row r="190" spans="1:256" customHeight="1" ht="19.57">
       <c r="B190">
         <v>655</v>
       </c>
     </row>
-    <row r="191" spans="1:236" customHeight="1" ht="19.57">
+    <row r="191" spans="1:256" customHeight="1" ht="19.57">
       <c r="B191">
         <v>656</v>
       </c>
     </row>
-    <row r="192" spans="1:236" customHeight="1" ht="19.57">
+    <row r="192" spans="1:256" customHeight="1" ht="19.57">
       <c r="B192">
         <v>657</v>
       </c>
     </row>
-    <row r="193" spans="1:236" customHeight="1" ht="19.57">
+    <row r="193" spans="1:256" customHeight="1" ht="19.57">
       <c r="B193">
         <v>658</v>
       </c>
     </row>
-    <row r="194" spans="1:236" customHeight="1" ht="19.57">
+    <row r="194" spans="1:256" customHeight="1" ht="19.57">
       <c r="B194">
         <v>659</v>
       </c>
     </row>
-    <row r="195" spans="1:236" customHeight="1" ht="19.57">
+    <row r="195" spans="1:256" customHeight="1" ht="19.57">
       <c r="B195">
         <v>660</v>
       </c>
     </row>
-    <row r="196" spans="1:236" customHeight="1" ht="19.57">
+    <row r="196" spans="1:256" customHeight="1" ht="19.57">
       <c r="B196">
         <v>661</v>
       </c>
     </row>
-    <row r="197" spans="1:236" customHeight="1" ht="19.57">
+    <row r="197" spans="1:256" customHeight="1" ht="19.57">
       <c r="B197">
         <v>662</v>
       </c>
     </row>
-    <row r="198" spans="1:236" customHeight="1" ht="19.57">
+    <row r="198" spans="1:256" customHeight="1" ht="19.57">
       <c r="B198">
         <v>663</v>
       </c>
     </row>
-    <row r="199" spans="1:236" customHeight="1" ht="19.57">
+    <row r="199" spans="1:256" customHeight="1" ht="19.57">
       <c r="B199">
         <v>664</v>
       </c>
     </row>
-    <row r="200" spans="1:236" customHeight="1" ht="19.57">
+    <row r="200" spans="1:256" customHeight="1" ht="19.57">
       <c r="B200">
         <v>665</v>
       </c>
     </row>
-    <row r="201" spans="1:236" customHeight="1" ht="19.57">
+    <row r="201" spans="1:256" customHeight="1" ht="19.57">
       <c r="B201">
         <v>666</v>
       </c>
     </row>
-    <row r="202" spans="1:236" customHeight="1" ht="19.57">
+    <row r="202" spans="1:256" customHeight="1" ht="19.57">
       <c r="B202">
         <v>667</v>
       </c>
     </row>
-    <row r="203" spans="1:236" customHeight="1" ht="19.57">
+    <row r="203" spans="1:256" customHeight="1" ht="19.57">
       <c r="B203">
         <v>668</v>
       </c>
     </row>
-    <row r="204" spans="1:236" customHeight="1" ht="19.57">
+    <row r="204" spans="1:256" customHeight="1" ht="19.57">
       <c r="B204">
         <v>669</v>
       </c>
     </row>
-    <row r="205" spans="1:236" customHeight="1" ht="19.57">
+    <row r="205" spans="1:256" customHeight="1" ht="19.57">
       <c r="B205">
         <v>670</v>
       </c>
     </row>
-    <row r="206" spans="1:236" customHeight="1" ht="19.57">
+    <row r="206" spans="1:256" customHeight="1" ht="19.57">
       <c r="B206">
         <v>671</v>
       </c>
     </row>
-    <row r="207" spans="1:236" customHeight="1" ht="19.57">
+    <row r="207" spans="1:256" customHeight="1" ht="19.57">
       <c r="B207">
         <v>672</v>
       </c>
     </row>
-    <row r="208" spans="1:236" customHeight="1" ht="19.57">
+    <row r="208" spans="1:256" customHeight="1" ht="19.57">
       <c r="B208">
         <v>673</v>
       </c>
     </row>
-    <row r="209" spans="1:236" customHeight="1" ht="19.57">
+    <row r="209" spans="1:256" customHeight="1" ht="19.57">
       <c r="B209">
         <v>674</v>
       </c>
     </row>
-    <row r="210" spans="1:236" customHeight="1" ht="19.57">
+    <row r="210" spans="1:256" customHeight="1" ht="19.57">
       <c r="B210">
         <v>675</v>
       </c>
     </row>
-    <row r="211" spans="1:236" customHeight="1" ht="19.57">
+    <row r="211" spans="1:256" customHeight="1" ht="19.57">
       <c r="B211">
         <v>676</v>
       </c>
     </row>
-    <row r="212" spans="1:236" customHeight="1" ht="19.57">
+    <row r="212" spans="1:256" customHeight="1" ht="19.57">
       <c r="B212">
         <v>677</v>
       </c>
     </row>
-    <row r="213" spans="1:236" customHeight="1" ht="19.57">
+    <row r="213" spans="1:256" customHeight="1" ht="19.57">
       <c r="B213">
         <v>678</v>
       </c>
     </row>
-    <row r="214" spans="1:236" customHeight="1" ht="19.57">
+    <row r="214" spans="1:256" customHeight="1" ht="19.57">
       <c r="B214">
         <v>679</v>
       </c>
     </row>
-    <row r="215" spans="1:236" customHeight="1" ht="19.57">
+    <row r="215" spans="1:256" customHeight="1" ht="19.57">
       <c r="B215">
         <v>680</v>
       </c>
     </row>
-    <row r="216" spans="1:236" customHeight="1" ht="19.57">
+    <row r="216" spans="1:256" customHeight="1" ht="19.57">
       <c r="B216">
         <v>681</v>
       </c>
     </row>
-    <row r="217" spans="1:236" customHeight="1" ht="19.57">
+    <row r="217" spans="1:256" customHeight="1" ht="19.57">
       <c r="B217">
         <v>682</v>
       </c>
     </row>
-    <row r="218" spans="1:236" customHeight="1" ht="19.57">
+    <row r="218" spans="1:256" customHeight="1" ht="19.57">
       <c r="B218">
         <v>683</v>
       </c>
     </row>
-    <row r="219" spans="1:236" customHeight="1" ht="19.57">
+    <row r="219" spans="1:256" customHeight="1" ht="19.57">
       <c r="B219">
         <v>684</v>
       </c>
     </row>
-    <row r="220" spans="1:236" customHeight="1" ht="19.57">
+    <row r="220" spans="1:256" customHeight="1" ht="19.57">
       <c r="B220">
         <v>685</v>
       </c>
     </row>
-    <row r="221" spans="1:236" customHeight="1" ht="19.57">
+    <row r="221" spans="1:256" customHeight="1" ht="19.57">
       <c r="B221">
         <v>686</v>
       </c>
     </row>
-    <row r="222" spans="1:236" customHeight="1" ht="19.57">
+    <row r="222" spans="1:256" customHeight="1" ht="19.57">
       <c r="B222">
         <v>687</v>
       </c>
     </row>
-    <row r="223" spans="1:236" customHeight="1" ht="19.57">
+    <row r="223" spans="1:256" customHeight="1" ht="19.57">
       <c r="B223">
         <v>688</v>
       </c>
     </row>
-    <row r="224" spans="1:236" customHeight="1" ht="19.57">
+    <row r="224" spans="1:256" customHeight="1" ht="19.57">
       <c r="B224">
         <v>689</v>
       </c>
     </row>
-    <row r="225" spans="1:236" customHeight="1" ht="19.57">
+    <row r="225" spans="1:256" customHeight="1" ht="19.57">
       <c r="B225">
         <v>690</v>
       </c>
     </row>
-    <row r="226" spans="1:236" customHeight="1" ht="19.57">
+    <row r="226" spans="1:256" customHeight="1" ht="19.57">
       <c r="B226">
         <v>691</v>
       </c>
     </row>
-    <row r="227" spans="1:236" customHeight="1" ht="19.57">
+    <row r="227" spans="1:256" customHeight="1" ht="19.57">
       <c r="B227">
         <v>692</v>
       </c>
     </row>
-    <row r="228" spans="1:236" customHeight="1" ht="19.57">
+    <row r="228" spans="1:256" customHeight="1" ht="19.57">
       <c r="B228">
         <v>693</v>
       </c>
     </row>
-    <row r="229" spans="1:236" customHeight="1" ht="19.57">
+    <row r="229" spans="1:256" customHeight="1" ht="19.57">
       <c r="B229">
         <v>694</v>
       </c>
     </row>
-    <row r="230" spans="1:236" customHeight="1" ht="19.57">
+    <row r="230" spans="1:256" customHeight="1" ht="19.57">
       <c r="B230">
         <v>695</v>
       </c>
     </row>
-    <row r="231" spans="1:236" customHeight="1" ht="19.57">
+    <row r="231" spans="1:256" customHeight="1" ht="19.57">
       <c r="B231">
         <v>696</v>
       </c>
     </row>
-    <row r="232" spans="1:236" customHeight="1" ht="19.57">
+    <row r="232" spans="1:256" customHeight="1" ht="19.57">
       <c r="B232">
         <v>697</v>
       </c>
     </row>
-    <row r="233" spans="1:236" customHeight="1" ht="19.57">
+    <row r="233" spans="1:256" customHeight="1" ht="19.57">
       <c r="B233">
         <v>698</v>
       </c>
     </row>
-    <row r="234" spans="1:236" customHeight="1" ht="19.57">
+    <row r="234" spans="1:256" customHeight="1" ht="19.57">
       <c r="B234">
         <v>699</v>
       </c>
     </row>
-    <row r="235" spans="1:236" customHeight="1" ht="19.57">
+    <row r="235" spans="1:256" customHeight="1" ht="19.57">
       <c r="B235">
         <v>700</v>
       </c>
     </row>
-    <row r="236" spans="1:236" customHeight="1" ht="19.57">
+    <row r="236" spans="1:256" customHeight="1" ht="19.57">
       <c r="B236">
         <v>701</v>
       </c>
     </row>
-    <row r="237" spans="1:236" customHeight="1" ht="19.57">
+    <row r="237" spans="1:256" customHeight="1" ht="19.57">
       <c r="B237">
         <v>702</v>
       </c>
     </row>
-    <row r="238" spans="1:236" customHeight="1" ht="19.57">
+    <row r="238" spans="1:256" customHeight="1" ht="19.57">
       <c r="B238">
         <v>703</v>
       </c>
     </row>
-    <row r="239" spans="1:236" customHeight="1" ht="19.57">
+    <row r="239" spans="1:256" customHeight="1" ht="19.57">
       <c r="B239">
         <v>704</v>
       </c>
     </row>
-    <row r="240" spans="1:236" customHeight="1" ht="19.57">
+    <row r="240" spans="1:256" customHeight="1" ht="19.57">
       <c r="B240">
         <v>705</v>
       </c>
     </row>
-    <row r="241" spans="1:236" customHeight="1" ht="19.57">
+    <row r="241" spans="1:256" customHeight="1" ht="19.57">
       <c r="B241">
         <v>706</v>
       </c>
     </row>
-    <row r="242" spans="1:236" customHeight="1" ht="19.57">
+    <row r="242" spans="1:256" customHeight="1" ht="19.57">
       <c r="B242">
         <v>707</v>
       </c>
     </row>
-    <row r="243" spans="1:236" customHeight="1" ht="19.57">
+    <row r="243" spans="1:256" customHeight="1" ht="19.57">
       <c r="B243">
         <v>708</v>
       </c>
     </row>
-    <row r="244" spans="1:236" customHeight="1" ht="19.57">
+    <row r="244" spans="1:256" customHeight="1" ht="19.57">
       <c r="B244">
         <v>709</v>
       </c>
     </row>
-    <row r="245" spans="1:236" customHeight="1" ht="19.57">
+    <row r="245" spans="1:256" customHeight="1" ht="19.57">
       <c r="B245">
         <v>710</v>
       </c>
     </row>
-    <row r="246" spans="1:236" customHeight="1" ht="19.57">
+    <row r="246" spans="1:256" customHeight="1" ht="19.57">
       <c r="B246">
         <v>711</v>
       </c>
     </row>
-    <row r="247" spans="1:236" customHeight="1" ht="19.57">
+    <row r="247" spans="1:256" customHeight="1" ht="19.57">
       <c r="B247">
         <v>712</v>
       </c>
     </row>
-    <row r="248" spans="1:236" customHeight="1" ht="19.57">
+    <row r="248" spans="1:256" customHeight="1" ht="19.57">
       <c r="B248">
         <v>713</v>
       </c>
     </row>
-    <row r="249" spans="1:236" customHeight="1" ht="19.57">
+    <row r="249" spans="1:256" customHeight="1" ht="19.57">
       <c r="B249">
         <v>714</v>
       </c>
     </row>
-    <row r="250" spans="1:236" customHeight="1" ht="19.57">
+    <row r="250" spans="1:256" customHeight="1" ht="19.57">
       <c r="B250">
         <v>715</v>
       </c>
     </row>
-    <row r="251" spans="1:236" customHeight="1" ht="19.57">
+    <row r="251" spans="1:256" customHeight="1" ht="19.57">
       <c r="B251">
         <v>716</v>
       </c>
     </row>
-    <row r="252" spans="1:236" customHeight="1" ht="19.57">
+    <row r="252" spans="1:256" customHeight="1" ht="19.57">
       <c r="B252">
         <v>717</v>
       </c>
     </row>
-    <row r="253" spans="1:236" customHeight="1" ht="19.57">
+    <row r="253" spans="1:256" customHeight="1" ht="19.57">
       <c r="B253">
         <v>718</v>
       </c>
     </row>
-    <row r="254" spans="1:236" customHeight="1" ht="19.57">
+    <row r="254" spans="1:256" customHeight="1" ht="19.57">
       <c r="B254">
         <v>719</v>
       </c>
     </row>
-    <row r="255" spans="1:236" customHeight="1" ht="19.57">
+    <row r="255" spans="1:256" customHeight="1" ht="19.57">
       <c r="B255">
         <v>720</v>
       </c>
     </row>
-    <row r="256" spans="1:236" customHeight="1" ht="19.57">
+    <row r="256" spans="1:256" customHeight="1" ht="19.57">
       <c r="B256">
         <v>721</v>
       </c>
     </row>
-    <row r="257" spans="1:236" customHeight="1" ht="19.57">
+    <row r="257" spans="1:256" customHeight="1" ht="19.57">
       <c r="B257">
         <v>722</v>
       </c>
     </row>
-    <row r="258" spans="1:236" customHeight="1" ht="19.57">
+    <row r="258" spans="1:256" customHeight="1" ht="19.57">
       <c r="B258">
         <v>723</v>
       </c>
     </row>
-    <row r="259" spans="1:236" customHeight="1" ht="19.57">
+    <row r="259" spans="1:256" customHeight="1" ht="19.57">
       <c r="B259">
         <v>724</v>
       </c>
     </row>
-    <row r="260" spans="1:236" customHeight="1" ht="19.57">
+    <row r="260" spans="1:256" customHeight="1" ht="19.57">
       <c r="B260">
         <v>725</v>
       </c>
     </row>
-    <row r="261" spans="1:236" customHeight="1" ht="19.57">
+    <row r="261" spans="1:256" customHeight="1" ht="19.57">
       <c r="B261">
         <v>726</v>
       </c>
     </row>
-    <row r="262" spans="1:236" customHeight="1" ht="19.57">
+    <row r="262" spans="1:256" customHeight="1" ht="19.57">
       <c r="B262">
         <v>727</v>
       </c>
     </row>
-    <row r="263" spans="1:236" customHeight="1" ht="19.57">
+    <row r="263" spans="1:256" customHeight="1" ht="19.57">
       <c r="B263">
         <v>728</v>
       </c>
     </row>
-    <row r="264" spans="1:236" customHeight="1" ht="19.57">
+    <row r="264" spans="1:256" customHeight="1" ht="19.57">
       <c r="B264">
         <v>729</v>
       </c>
     </row>
-    <row r="265" spans="1:236" customHeight="1" ht="19.57">
+    <row r="265" spans="1:256" customHeight="1" ht="19.57">
       <c r="B265">
         <v>730</v>
       </c>
     </row>
-    <row r="266" spans="1:236" customHeight="1" ht="19.57">
+    <row r="266" spans="1:256" customHeight="1" ht="19.57">
       <c r="B266">
         <v>731</v>
       </c>
     </row>
-    <row r="267" spans="1:236" customHeight="1" ht="19.57">
+    <row r="267" spans="1:256" customHeight="1" ht="19.57">
       <c r="B267">
         <v>732</v>
       </c>
     </row>
-    <row r="268" spans="1:236" customHeight="1" ht="19.57">
+    <row r="268" spans="1:256" customHeight="1" ht="19.57">
       <c r="B268">
         <v>733</v>
       </c>
     </row>
-    <row r="269" spans="1:236" customHeight="1" ht="19.57">
+    <row r="269" spans="1:256" customHeight="1" ht="19.57">
       <c r="B269">
         <v>734</v>
       </c>
     </row>
-    <row r="270" spans="1:236" customHeight="1" ht="19.57">
+    <row r="270" spans="1:256" customHeight="1" ht="19.57">
       <c r="B270">
         <v>735</v>
       </c>
     </row>
-    <row r="271" spans="1:236" customHeight="1" ht="19.57">
+    <row r="271" spans="1:256" customHeight="1" ht="19.57">
       <c r="B271">
         <v>736</v>
       </c>
     </row>
-    <row r="272" spans="1:236" customHeight="1" ht="19.57">
+    <row r="272" spans="1:256" customHeight="1" ht="19.57">
       <c r="B272">
         <v>737</v>
       </c>
     </row>
-    <row r="273" spans="1:236" customHeight="1" ht="19.57">
+    <row r="273" spans="1:256" customHeight="1" ht="19.57">
       <c r="B273">
         <v>738</v>
       </c>
     </row>
-    <row r="274" spans="1:236" customHeight="1" ht="19.57">
+    <row r="274" spans="1:256" customHeight="1" ht="19.57">
       <c r="B274">
         <v>739</v>
       </c>
     </row>
-    <row r="275" spans="1:236" customHeight="1" ht="19.57">
+    <row r="275" spans="1:256" customHeight="1" ht="19.57">
       <c r="B275">
         <v>740</v>
       </c>
     </row>
-    <row r="276" spans="1:236" customHeight="1" ht="19.57">
+    <row r="276" spans="1:256" customHeight="1" ht="19.57">
       <c r="B276">
         <v>741</v>
       </c>
     </row>
-    <row r="277" spans="1:236" customHeight="1" ht="19.57">
+    <row r="277" spans="1:256" customHeight="1" ht="19.57">
       <c r="B277">
         <v>742</v>
       </c>
     </row>
-    <row r="278" spans="1:236" customHeight="1" ht="19.57">
+    <row r="278" spans="1:256" customHeight="1" ht="19.57">
       <c r="B278">
         <v>743</v>
       </c>
     </row>
-    <row r="279" spans="1:236" customHeight="1" ht="19.57">
+    <row r="279" spans="1:256" customHeight="1" ht="19.57">
       <c r="B279">
         <v>744</v>
       </c>
     </row>
-    <row r="280" spans="1:236" customHeight="1" ht="19.57">
+    <row r="280" spans="1:256" customHeight="1" ht="19.57">
       <c r="B280">
         <v>745</v>
       </c>
     </row>
-    <row r="281" spans="1:236" customHeight="1" ht="19.57">
+    <row r="281" spans="1:256" customHeight="1" ht="19.57">
       <c r="B281">
         <v>746</v>
       </c>
     </row>
-    <row r="282" spans="1:236" customHeight="1" ht="19.57">
+    <row r="282" spans="1:256" customHeight="1" ht="19.57">
       <c r="B282">
         <v>747</v>
       </c>
     </row>
-    <row r="283" spans="1:236" customHeight="1" ht="19.57">
+    <row r="283" spans="1:256" customHeight="1" ht="19.57">
       <c r="B283">
         <v>748</v>
       </c>
     </row>
-    <row r="284" spans="1:236" customHeight="1" ht="19.57">
+    <row r="284" spans="1:256" customHeight="1" ht="19.57">
       <c r="B284">
         <v>749</v>
       </c>
     </row>
-    <row r="285" spans="1:236" customHeight="1" ht="19.57">
+    <row r="285" spans="1:256" customHeight="1" ht="19.57">
       <c r="B285">
         <v>750</v>
       </c>
     </row>
-    <row r="286" spans="1:236" customHeight="1" ht="19.57">
+    <row r="286" spans="1:256" customHeight="1" ht="19.57">
       <c r="B286">
         <v>751</v>
       </c>
     </row>
-    <row r="287" spans="1:236" customHeight="1" ht="19.57">
+    <row r="287" spans="1:256" customHeight="1" ht="19.57">
       <c r="B287">
         <v>752</v>
       </c>
     </row>
-    <row r="288" spans="1:236" customHeight="1" ht="19.57">
+    <row r="288" spans="1:256" customHeight="1" ht="19.57">
       <c r="B288">
         <v>753</v>
       </c>
     </row>
-    <row r="289" spans="1:236" customHeight="1" ht="19.57">
+    <row r="289" spans="1:256" customHeight="1" ht="19.57">
       <c r="B289">
         <v>754</v>
       </c>
     </row>
-    <row r="290" spans="1:236" customHeight="1" ht="19.57">
+    <row r="290" spans="1:256" customHeight="1" ht="19.57">
       <c r="B290">
         <v>755</v>
       </c>
     </row>
-    <row r="291" spans="1:236" customHeight="1" ht="19.57">
+    <row r="291" spans="1:256" customHeight="1" ht="19.57">
       <c r="B291">
         <v>756</v>
       </c>
     </row>
-    <row r="292" spans="1:236" customHeight="1" ht="19.57">
+    <row r="292" spans="1:256" customHeight="1" ht="19.57">
       <c r="B292">
         <v>757</v>
       </c>
     </row>
-    <row r="293" spans="1:236" customHeight="1" ht="19.57">
+    <row r="293" spans="1:256" customHeight="1" ht="19.57">
       <c r="B293">
         <v>758</v>
       </c>
     </row>
-    <row r="294" spans="1:236" customHeight="1" ht="19.57">
+    <row r="294" spans="1:256" customHeight="1" ht="19.57">
       <c r="B294">
         <v>759</v>
       </c>
     </row>
-    <row r="295" spans="1:236" customHeight="1" ht="19.57">
+    <row r="295" spans="1:256" customHeight="1" ht="19.57">
       <c r="B295">
         <v>760</v>
       </c>
     </row>
-    <row r="296" spans="1:236" customHeight="1" ht="19.57">
+    <row r="296" spans="1:256" customHeight="1" ht="19.57">
       <c r="B296">
         <v>761</v>
       </c>
     </row>
-    <row r="297" spans="1:236" customHeight="1" ht="19.57">
+    <row r="297" spans="1:256" customHeight="1" ht="19.57">
       <c r="B297">
         <v>762</v>
       </c>
     </row>
-    <row r="298" spans="1:236" customHeight="1" ht="19.57">
+    <row r="298" spans="1:256" customHeight="1" ht="19.57">
       <c r="B298">
         <v>763</v>
       </c>
     </row>
-    <row r="299" spans="1:236" customHeight="1" ht="19.57">
+    <row r="299" spans="1:256" customHeight="1" ht="19.57">
       <c r="B299">
         <v>764</v>
       </c>
     </row>
-    <row r="300" spans="1:236" customHeight="1" ht="19.57">
+    <row r="300" spans="1:256" customHeight="1" ht="19.57">
       <c r="B300">
         <v>765</v>
       </c>
     </row>
-    <row r="301" spans="1:236" customHeight="1" ht="19.57">
+    <row r="301" spans="1:256" customHeight="1" ht="19.57">
       <c r="B301">
         <v>766</v>
       </c>
     </row>
-    <row r="302" spans="1:236" customHeight="1" ht="19.57">
+    <row r="302" spans="1:256" customHeight="1" ht="19.57">
       <c r="B302">
         <v>767</v>
       </c>
     </row>
-    <row r="303" spans="1:236" customHeight="1" ht="19.57">
+    <row r="303" spans="1:256" customHeight="1" ht="19.57">
       <c r="B303">
         <v>768</v>
       </c>
     </row>
-    <row r="304" spans="1:236" customHeight="1" ht="19.57">
+    <row r="304" spans="1:256" customHeight="1" ht="19.57">
       <c r="B304">
         <v>769</v>
       </c>
     </row>
-    <row r="305" spans="1:236" customHeight="1" ht="19.57">
+    <row r="305" spans="1:256" customHeight="1" ht="19.57">
       <c r="B305">
         <v>770</v>
       </c>
     </row>
-    <row r="306" spans="1:236" customHeight="1" ht="19.57">
+    <row r="306" spans="1:256" customHeight="1" ht="19.57">
       <c r="B306">
         <v>771</v>
       </c>
     </row>
-    <row r="307" spans="1:236" customHeight="1" ht="19.57">
+    <row r="307" spans="1:256" customHeight="1" ht="19.57">
       <c r="B307">
         <v>772</v>
       </c>
     </row>
-    <row r="308" spans="1:236" customHeight="1" ht="19.57">
+    <row r="308" spans="1:256" customHeight="1" ht="19.57">
       <c r="B308">
         <v>773</v>
       </c>
     </row>
-    <row r="309" spans="1:236" customHeight="1" ht="19.57">
+    <row r="309" spans="1:256" customHeight="1" ht="19.57">
       <c r="B309">
         <v>774</v>
       </c>
     </row>
-    <row r="310" spans="1:236" customHeight="1" ht="19.57">
+    <row r="310" spans="1:256" customHeight="1" ht="19.57">
       <c r="B310">
         <v>775</v>
       </c>
     </row>
-    <row r="311" spans="1:236" customHeight="1" ht="19.57">
+    <row r="311" spans="1:256" customHeight="1" ht="19.57">
       <c r="B311">
         <v>776</v>
       </c>
     </row>
-    <row r="312" spans="1:236" customHeight="1" ht="19.57">
+    <row r="312" spans="1:256" customHeight="1" ht="19.57">
       <c r="B312">
         <v>777</v>
       </c>
     </row>
-    <row r="313" spans="1:236" customHeight="1" ht="19.57">
+    <row r="313" spans="1:256" customHeight="1" ht="19.57">
       <c r="B313">
         <v>778</v>
       </c>
     </row>
-    <row r="314" spans="1:236" customHeight="1" ht="19.57">
+    <row r="314" spans="1:256" customHeight="1" ht="19.57">
       <c r="B314">
         <v>779</v>
       </c>
     </row>
-    <row r="315" spans="1:236" customHeight="1" ht="19.57">
+    <row r="315" spans="1:256" customHeight="1" ht="19.57">
       <c r="B315">
         <v>780</v>
       </c>
     </row>
-    <row r="316" spans="1:236" customHeight="1" ht="19.57">
+    <row r="316" spans="1:256" customHeight="1" ht="19.57">
       <c r="B316">
         <v>781</v>
       </c>
     </row>
-    <row r="317" spans="1:236" customHeight="1" ht="19.57">
+    <row r="317" spans="1:256" customHeight="1" ht="19.57">
       <c r="B317">
         <v>782</v>
       </c>
     </row>
-    <row r="318" spans="1:236" customHeight="1" ht="19.57">
+    <row r="318" spans="1:256" customHeight="1" ht="19.57">
       <c r="B318">
         <v>783</v>
       </c>
     </row>
-    <row r="319" spans="1:236" customHeight="1" ht="19.57">
+    <row r="319" spans="1:256" customHeight="1" ht="19.57">
       <c r="B319">
         <v>784</v>
       </c>
     </row>
-    <row r="320" spans="1:236" customHeight="1" ht="19.57">
+    <row r="320" spans="1:256" customHeight="1" ht="19.57">
       <c r="B320">
         <v>785</v>
       </c>
     </row>
-    <row r="321" spans="1:236" customHeight="1" ht="19.57">
+    <row r="321" spans="1:256" customHeight="1" ht="19.57">
       <c r="B321">
         <v>786</v>
       </c>
     </row>
-    <row r="322" spans="1:236" customHeight="1" ht="19.57">
+    <row r="322" spans="1:256" customHeight="1" ht="19.57">
       <c r="B322">
         <v>787</v>
       </c>
     </row>
-    <row r="323" spans="1:236" customHeight="1" ht="19.57">
+    <row r="323" spans="1:256" customHeight="1" ht="19.57">
       <c r="B323">
         <v>788</v>
       </c>
     </row>
-    <row r="324" spans="1:236" customHeight="1" ht="19.57">
+    <row r="324" spans="1:256" customHeight="1" ht="19.57">
       <c r="B324">
         <v>789</v>
       </c>
     </row>
-    <row r="325" spans="1:236" customHeight="1" ht="19.57">
+    <row r="325" spans="1:256" customHeight="1" ht="19.57">
       <c r="B325">
         <v>790</v>
       </c>
     </row>
-    <row r="326" spans="1:236" customHeight="1" ht="19.57">
+    <row r="326" spans="1:256" customHeight="1" ht="19.57">
       <c r="B326">
         <v>791</v>
       </c>
     </row>
-    <row r="327" spans="1:236" customHeight="1" ht="19.57">
+    <row r="327" spans="1:256" customHeight="1" ht="19.57">
       <c r="B327">
         <v>792</v>
       </c>
     </row>
-    <row r="328" spans="1:236" customHeight="1" ht="19.57">
+    <row r="328" spans="1:256" customHeight="1" ht="19.57">
       <c r="B328">
         <v>793</v>
       </c>
     </row>
-    <row r="329" spans="1:236" customHeight="1" ht="19.57">
+    <row r="329" spans="1:256" customHeight="1" ht="19.57">
       <c r="B329">
         <v>794</v>
       </c>
     </row>
-    <row r="330" spans="1:236" customHeight="1" ht="19.57">
+    <row r="330" spans="1:256" customHeight="1" ht="19.57">
       <c r="B330">
         <v>795</v>
       </c>
     </row>
-    <row r="331" spans="1:236" customHeight="1" ht="19.57">
+    <row r="331" spans="1:256" customHeight="1" ht="19.57">
       <c r="B331">
         <v>796</v>
       </c>
     </row>
-    <row r="332" spans="1:236" customHeight="1" ht="19.57">
+    <row r="332" spans="1:256" customHeight="1" ht="19.57">
       <c r="B332">
         <v>797</v>
       </c>
     </row>
-    <row r="333" spans="1:236" customHeight="1" ht="19.57">
+    <row r="333" spans="1:256" customHeight="1" ht="19.57">
       <c r="B333">
         <v>798</v>
       </c>
     </row>
-    <row r="334" spans="1:236" customHeight="1" ht="19.57">
+    <row r="334" spans="1:256" customHeight="1" ht="19.57">
       <c r="B334">
         <v>799</v>
       </c>
     </row>
-    <row r="335" spans="1:236" customHeight="1" ht="19.57">
+    <row r="335" spans="1:256" customHeight="1" ht="19.57">
       <c r="B335">
         <v>800</v>
       </c>
     </row>
-    <row r="336" spans="1:236" customHeight="1" ht="19.57">
+    <row r="336" spans="1:256" customHeight="1" ht="19.57">
       <c r="B336">
         <v>801</v>
       </c>
     </row>
-    <row r="337" spans="1:236" customHeight="1" ht="19.57">
+    <row r="337" spans="1:256" customHeight="1" ht="19.57">
       <c r="B337">
         <v>802</v>
       </c>
     </row>
-    <row r="338" spans="1:236" customHeight="1" ht="19.57">
+    <row r="338" spans="1:256" customHeight="1" ht="19.57">
       <c r="B338">
         <v>803</v>
       </c>
     </row>
-    <row r="339" spans="1:236" customHeight="1" ht="19.57">
+    <row r="339" spans="1:256" customHeight="1" ht="19.57">
       <c r="B339">
         <v>804</v>
       </c>
     </row>
-    <row r="340" spans="1:236" customHeight="1" ht="19.57">
+    <row r="340" spans="1:256" customHeight="1" ht="19.57">
       <c r="B340">
         <v>805</v>
       </c>
     </row>
-    <row r="341" spans="1:236" customHeight="1" ht="19.57">
+    <row r="341" spans="1:256" customHeight="1" ht="19.57">
       <c r="B341">
         <v>806</v>
       </c>
     </row>
-    <row r="342" spans="1:236" customHeight="1" ht="19.57">
+    <row r="342" spans="1:256" customHeight="1" ht="19.57">
       <c r="B342">
         <v>807</v>
       </c>
     </row>
-    <row r="343" spans="1:236" customHeight="1" ht="19.57">
+    <row r="343" spans="1:256" customHeight="1" ht="19.57">
       <c r="B343">
         <v>808</v>
       </c>
     </row>
-    <row r="344" spans="1:236" customHeight="1" ht="19.57">
+    <row r="344" spans="1:256" customHeight="1" ht="19.57">
       <c r="B344">
         <v>809</v>
       </c>
     </row>
-    <row r="345" spans="1:236" customHeight="1" ht="19.57">
+    <row r="345" spans="1:256" customHeight="1" ht="19.57">
       <c r="B345">
         <v>810</v>
       </c>
     </row>
-    <row r="346" spans="1:236" customHeight="1" ht="19.57">
+    <row r="346" spans="1:256" customHeight="1" ht="19.57">
       <c r="B346">
         <v>811</v>
       </c>
     </row>
-    <row r="347" spans="1:236" customHeight="1" ht="19.57">
+    <row r="347" spans="1:256" customHeight="1" ht="19.57">
       <c r="B347">
         <v>812</v>
       </c>
     </row>
-    <row r="348" spans="1:236" customHeight="1" ht="19.57">
+    <row r="348" spans="1:256" customHeight="1" ht="19.57">
       <c r="B348">
         <v>813</v>
       </c>
     </row>
-    <row r="349" spans="1:236" customHeight="1" ht="19.57">
+    <row r="349" spans="1:256" customHeight="1" ht="19.57">
       <c r="B349">
         <v>814</v>
       </c>
     </row>
-    <row r="350" spans="1:236" customHeight="1" ht="19.57">
+    <row r="350" spans="1:256" customHeight="1" ht="19.57">
       <c r="B350">
         <v>815</v>
       </c>
     </row>
-    <row r="351" spans="1:236" customHeight="1" ht="19.57">
+    <row r="351" spans="1:256" customHeight="1" ht="19.57">
       <c r="B351">
         <v>816</v>
       </c>
     </row>
-    <row r="352" spans="1:236" customHeight="1" ht="19.57">
+    <row r="352" spans="1:256" customHeight="1" ht="19.57">
       <c r="B352">
         <v>817</v>
       </c>
     </row>
-    <row r="353" spans="1:236" customHeight="1" ht="19.57">
+    <row r="353" spans="1:256" customHeight="1" ht="19.57">
       <c r="B353">
         <v>818</v>
       </c>
     </row>
-    <row r="354" spans="1:236" customHeight="1" ht="19.57">
+    <row r="354" spans="1:256" customHeight="1" ht="19.57">
       <c r="B354">
         <v>819</v>
       </c>
     </row>
-    <row r="355" spans="1:236" customHeight="1" ht="19.57">
+    <row r="355" spans="1:256" customHeight="1" ht="19.57">
       <c r="B355">
         <v>820</v>
       </c>
     </row>
-    <row r="356" spans="1:236" customHeight="1" ht="19.57">
+    <row r="356" spans="1:256" customHeight="1" ht="19.57">
       <c r="B356">
         <v>821</v>
       </c>
     </row>
-    <row r="357" spans="1:236" customHeight="1" ht="19.57">
+    <row r="357" spans="1:256" customHeight="1" ht="19.57">
       <c r="B357">
         <v>822</v>
       </c>
     </row>
-    <row r="358" spans="1:236" customHeight="1" ht="19.57">
+    <row r="358" spans="1:256" customHeight="1" ht="19.57">
       <c r="B358">
         <v>823</v>
       </c>
     </row>
-    <row r="359" spans="1:236" customHeight="1" ht="19.57">
+    <row r="359" spans="1:256" customHeight="1" ht="19.57">
       <c r="B359">
         <v>824</v>
       </c>
     </row>
-    <row r="360" spans="1:236" customHeight="1" ht="19.57">
+    <row r="360" spans="1:256" customHeight="1" ht="19.57">
       <c r="B360">
         <v>825</v>
       </c>
     </row>
-    <row r="361" spans="1:236" customHeight="1" ht="19.57">
+    <row r="361" spans="1:256" customHeight="1" ht="19.57">
       <c r="B361">
         <v>826</v>
       </c>
     </row>
-    <row r="362" spans="1:236" customHeight="1" ht="19.57">
+    <row r="362" spans="1:256" customHeight="1" ht="19.57">
       <c r="B362">
         <v>827</v>
       </c>
     </row>
-    <row r="363" spans="1:236" customHeight="1" ht="19.57">
+    <row r="363" spans="1:256" customHeight="1" ht="19.57">
       <c r="B363">
         <v>828</v>
       </c>
     </row>
-    <row r="364" spans="1:236" customHeight="1" ht="19.57">
+    <row r="364" spans="1:256" customHeight="1" ht="19.57">
       <c r="B364">
         <v>829</v>
       </c>
     </row>
-    <row r="365" spans="1:236" customHeight="1" ht="19.57">
+    <row r="365" spans="1:256" customHeight="1" ht="19.57">
       <c r="B365">
         <v>830</v>
       </c>
     </row>
-    <row r="366" spans="1:236" customHeight="1" ht="19.57">
+    <row r="366" spans="1:256" customHeight="1" ht="19.57">
       <c r="B366">
         <v>831</v>
       </c>
     </row>
-    <row r="367" spans="1:236" customHeight="1" ht="19.57">
+    <row r="367" spans="1:256" customHeight="1" ht="19.57">
       <c r="B367">
         <v>832</v>
       </c>
     </row>
-    <row r="368" spans="1:236" customHeight="1" ht="19.57">
+    <row r="368" spans="1:256" customHeight="1" ht="19.57">
       <c r="B368">
         <v>833</v>
       </c>
     </row>
-    <row r="369" spans="1:236" customHeight="1" ht="19.57">
+    <row r="369" spans="1:256" customHeight="1" ht="19.57">
       <c r="B369">
         <v>834</v>
       </c>
     </row>
-    <row r="370" spans="1:236" customHeight="1" ht="19.57">
+    <row r="370" spans="1:256" customHeight="1" ht="19.57">
       <c r="B370">
         <v>835</v>
       </c>
     </row>
-    <row r="371" spans="1:236" customHeight="1" ht="19.57">
+    <row r="371" spans="1:256" customHeight="1" ht="19.57">
       <c r="B371">
         <v>836</v>
       </c>
     </row>
-    <row r="372" spans="1:236" customHeight="1" ht="19.57">
+    <row r="372" spans="1:256" customHeight="1" ht="19.57">
       <c r="B372">
         <v>837</v>
       </c>
     </row>
-    <row r="373" spans="1:236" customHeight="1" ht="19.57">
+    <row r="373" spans="1:256" customHeight="1" ht="19.57">
       <c r="B373">
         <v>838</v>
       </c>
     </row>
-    <row r="374" spans="1:236" customHeight="1" ht="19.57">
+    <row r="374" spans="1:256" customHeight="1" ht="19.57">
       <c r="B374">
         <v>839</v>
       </c>
     </row>
-    <row r="375" spans="1:236" customHeight="1" ht="19.57">
+    <row r="375" spans="1:256" customHeight="1" ht="19.57">
       <c r="B375">
         <v>840</v>
       </c>
     </row>
-    <row r="376" spans="1:236" customHeight="1" ht="19.57">
+    <row r="376" spans="1:256" customHeight="1" ht="19.57">
       <c r="B376">
         <v>841</v>
       </c>
     </row>
-    <row r="377" spans="1:236" customHeight="1" ht="19.57">
+    <row r="377" spans="1:256" customHeight="1" ht="19.57">
       <c r="B377">
         <v>842</v>
       </c>
     </row>
-    <row r="378" spans="1:236" customHeight="1" ht="19.57">
+    <row r="378" spans="1:256" customHeight="1" ht="19.57">
       <c r="B378">
         <v>843</v>
       </c>
     </row>
-    <row r="379" spans="1:236" customHeight="1" ht="19.57">
+    <row r="379" spans="1:256" customHeight="1" ht="19.57">
       <c r="B379">
         <v>844</v>
       </c>
     </row>
-    <row r="380" spans="1:236" customHeight="1" ht="19.57">
+    <row r="380" spans="1:256" customHeight="1" ht="19.57">
       <c r="B380">
         <v>845</v>
       </c>
     </row>
-    <row r="381" spans="1:236" customHeight="1" ht="19.57">
+    <row r="381" spans="1:256" customHeight="1" ht="19.57">
       <c r="B381">
         <v>846</v>
       </c>
     </row>
-    <row r="382" spans="1:236" customHeight="1" ht="19.57">
+    <row r="382" spans="1:256" customHeight="1" ht="19.57">
       <c r="B382">
         <v>847</v>
       </c>
     </row>
-    <row r="383" spans="1:236" customHeight="1" ht="19.57">
+    <row r="383" spans="1:256" customHeight="1" ht="19.57">
       <c r="B383">
         <v>848</v>
       </c>
     </row>
-    <row r="384" spans="1:236" customHeight="1" ht="19.57">
+    <row r="384" spans="1:256" customHeight="1" ht="19.57">
       <c r="B384">
         <v>849</v>
       </c>
     </row>
-    <row r="385" spans="1:236" customHeight="1" ht="19.57">
+    <row r="385" spans="1:256" customHeight="1" ht="19.57">
       <c r="B385">
         <v>850</v>
       </c>
     </row>
-    <row r="386" spans="1:236" customHeight="1" ht="19.57">
+    <row r="386" spans="1:256" customHeight="1" ht="19.57">
       <c r="B386">
         <v>851</v>
       </c>
     </row>
-    <row r="387" spans="1:236" customHeight="1" ht="19.57">
+    <row r="387" spans="1:256" customHeight="1" ht="19.57">
       <c r="B387">
         <v>852</v>
       </c>
     </row>
-    <row r="388" spans="1:236" customHeight="1" ht="19.57">
+    <row r="388" spans="1:256" customHeight="1" ht="19.57">
       <c r="B388">
         <v>853</v>
       </c>
     </row>
-    <row r="389" spans="1:236" customHeight="1" ht="19.57">
+    <row r="389" spans="1:256" customHeight="1" ht="19.57">
       <c r="B389">
         <v>854</v>
       </c>
     </row>
-    <row r="390" spans="1:236" customHeight="1" ht="19.57">
+    <row r="390" spans="1:256" customHeight="1" ht="19.57">
       <c r="B390">
         <v>855</v>
       </c>
     </row>
-    <row r="391" spans="1:236" customHeight="1" ht="19.57">
+    <row r="391" spans="1:256" customHeight="1" ht="19.57">
       <c r="B391">
         <v>856</v>
       </c>
     </row>
-    <row r="392" spans="1:236" customHeight="1" ht="19.57">
+    <row r="392" spans="1:256" customHeight="1" ht="19.57">
       <c r="B392">
         <v>857</v>
       </c>
     </row>
-    <row r="393" spans="1:236" customHeight="1" ht="19.57">
+    <row r="393" spans="1:256" customHeight="1" ht="19.57">
       <c r="B393">
         <v>858</v>
       </c>
     </row>
-    <row r="394" spans="1:236" customHeight="1" ht="19.57">
+    <row r="394" spans="1:256" customHeight="1" ht="19.57">
       <c r="B394">
         <v>859</v>
       </c>
     </row>
-    <row r="395" spans="1:236" customHeight="1" ht="19.57">
+    <row r="395" spans="1:256" customHeight="1" ht="19.57">
       <c r="B395">
         <v>860</v>
       </c>
     </row>
-    <row r="396" spans="1:236" customHeight="1" ht="19.57">
+    <row r="396" spans="1:256" customHeight="1" ht="19.57">
       <c r="B396">
         <v>861</v>
       </c>
     </row>
-    <row r="397" spans="1:236" customHeight="1" ht="19.57">
+    <row r="397" spans="1:256" customHeight="1" ht="19.57">
       <c r="B397">
         <v>862</v>
       </c>
     </row>
-    <row r="398" spans="1:236" customHeight="1" ht="19.57">
+    <row r="398" spans="1:256" customHeight="1" ht="19.57">
       <c r="B398">
         <v>863</v>
       </c>
     </row>
-    <row r="399" spans="1:236" customHeight="1" ht="19.57">
+    <row r="399" spans="1:256" customHeight="1" ht="19.57">
       <c r="B399">
         <v>864</v>
       </c>
     </row>
-    <row r="400" spans="1:236" customHeight="1" ht="19.57">
+    <row r="400" spans="1:256" customHeight="1" ht="19.57">
       <c r="B400">
         <v>865</v>
       </c>
     </row>
-    <row r="401" spans="1:236" customHeight="1" ht="19.57">
+    <row r="401" spans="1:256" customHeight="1" ht="19.57">
       <c r="B401">
         <v>866</v>
       </c>
     </row>
-    <row r="402" spans="1:236" customHeight="1" ht="19.57">
+    <row r="402" spans="1:256" customHeight="1" ht="19.57">
       <c r="B402">
         <v>867</v>
       </c>
     </row>
-    <row r="403" spans="1:236" customHeight="1" ht="19.57">
+    <row r="403" spans="1:256" customHeight="1" ht="19.57">
       <c r="B403">
         <v>868</v>
       </c>
     </row>
-    <row r="404" spans="1:236" customHeight="1" ht="19.57">
+    <row r="404" spans="1:256" customHeight="1" ht="19.57">
       <c r="B404">
         <v>869</v>
       </c>
     </row>
-    <row r="405" spans="1:236" customHeight="1" ht="19.57">
+    <row r="405" spans="1:256" customHeight="1" ht="19.57">
       <c r="B405">
         <v>870</v>
       </c>
     </row>
-    <row r="406" spans="1:236" customHeight="1" ht="19.57">
+    <row r="406" spans="1:256" customHeight="1" ht="19.57">
       <c r="B406">
         <v>871</v>
       </c>
     </row>
-    <row r="407" spans="1:236" customHeight="1" ht="19.57">
+    <row r="407" spans="1:256" customHeight="1" ht="19.57">
       <c r="B407">
         <v>872</v>
       </c>
     </row>
-    <row r="408" spans="1:236" customHeight="1" ht="19.57">
+    <row r="408" spans="1:256" customHeight="1" ht="19.57">
       <c r="B408">
         <v>873</v>
       </c>
     </row>
-    <row r="409" spans="1:236" customHeight="1" ht="19.57">
+    <row r="409" spans="1:256" customHeight="1" ht="19.57">
       <c r="B409">
         <v>874</v>
       </c>
     </row>
-    <row r="410" spans="1:236" customHeight="1" ht="19.57">
+    <row r="410" spans="1:256" customHeight="1" ht="19.57">
       <c r="B410">
         <v>875</v>
       </c>
     </row>
-    <row r="411" spans="1:236" customHeight="1" ht="19.57">
+    <row r="411" spans="1:256" customHeight="1" ht="19.57">
       <c r="B411">
         <v>876</v>
       </c>
     </row>
-    <row r="412" spans="1:236" customHeight="1" ht="19.57">
+    <row r="412" spans="1:256" customHeight="1" ht="19.57">
       <c r="B412">
         <v>877</v>
       </c>
     </row>
-    <row r="413" spans="1:236" customHeight="1" ht="19.57">
+    <row r="413" spans="1:256" customHeight="1" ht="19.57">
       <c r="B413">
         <v>878</v>
       </c>
     </row>
-    <row r="414" spans="1:236" customHeight="1" ht="19.57">
+    <row r="414" spans="1:256" customHeight="1" ht="19.57">
       <c r="B414">
         <v>879</v>
       </c>
     </row>
-    <row r="415" spans="1:236" customHeight="1" ht="19.57">
+    <row r="415" spans="1:256" customHeight="1" ht="19.57">
       <c r="B415">
         <v>880</v>
       </c>
     </row>
-    <row r="416" spans="1:236" customHeight="1" ht="19.57">
+    <row r="416" spans="1:256" customHeight="1" ht="19.57">
       <c r="B416">
         <v>881</v>
       </c>
     </row>
-    <row r="417" spans="1:236" customHeight="1" ht="19.57">
+    <row r="417" spans="1:256" customHeight="1" ht="19.57">
       <c r="B417">
         <v>882</v>
       </c>
     </row>
-    <row r="418" spans="1:236" customHeight="1" ht="19.57">
+    <row r="418" spans="1:256" customHeight="1" ht="19.57">
       <c r="B418">
         <v>883</v>
       </c>
     </row>
-    <row r="419" spans="1:236" customHeight="1" ht="19.57">
+    <row r="419" spans="1:256" customHeight="1" ht="19.57">
       <c r="B419">
         <v>884</v>
       </c>
     </row>
-    <row r="420" spans="1:236" customHeight="1" ht="19.57">
+    <row r="420" spans="1:256" customHeight="1" ht="19.57">
       <c r="B420">
         <v>885</v>
       </c>
     </row>
-    <row r="421" spans="1:236" customHeight="1" ht="19.57">
+    <row r="421" spans="1:256" customHeight="1" ht="19.57">
       <c r="B421">
         <v>886</v>
       </c>
     </row>
-    <row r="422" spans="1:236" customHeight="1" ht="19.57">
+    <row r="422" spans="1:256" customHeight="1" ht="19.57">
       <c r="B422">
         <v>887</v>
       </c>
     </row>
-    <row r="423" spans="1:236" customHeight="1" ht="19.57">
+    <row r="423" spans="1:256" customHeight="1" ht="19.57">
       <c r="B423">
         <v>888</v>
       </c>
     </row>
-    <row r="424" spans="1:236" customHeight="1" ht="19.57">
+    <row r="424" spans="1:256" customHeight="1" ht="19.57">
       <c r="B424">
         <v>889</v>
       </c>
     </row>
-    <row r="425" spans="1:236" customHeight="1" ht="19.57">
+    <row r="425" spans="1:256" customHeight="1" ht="19.57">
       <c r="B425">
         <v>890</v>
       </c>
     </row>
-    <row r="426" spans="1:236" customHeight="1" ht="19.57">
+    <row r="426" spans="1:256" customHeight="1" ht="19.57">
       <c r="B426">
         <v>891</v>
       </c>
     </row>
-    <row r="427" spans="1:236" customHeight="1" ht="19.57">
+    <row r="427" spans="1:256" customHeight="1" ht="19.57">
       <c r="B427">
         <v>892</v>
       </c>
     </row>
-    <row r="428" spans="1:236" customHeight="1" ht="19.57">
+    <row r="428" spans="1:256" customHeight="1" ht="19.57">
       <c r="B428">
         <v>893</v>
       </c>
     </row>
-    <row r="429" spans="1:236" customHeight="1" ht="19.57">
+    <row r="429" spans="1:256" customHeight="1" ht="19.57">
       <c r="B429">
         <v>894</v>
       </c>
     </row>
-    <row r="430" spans="1:236" customHeight="1" ht="19.57">
+    <row r="430" spans="1:256" customHeight="1" ht="19.57">
       <c r="B430">
         <v>895</v>
       </c>
     </row>
-    <row r="431" spans="1:236" customHeight="1" ht="19.57">
+    <row r="431" spans="1:256" customHeight="1" ht="19.57">
       <c r="B431">
         <v>896</v>
       </c>
     </row>
-    <row r="432" spans="1:236" customHeight="1" ht="19.57">
+    <row r="432" spans="1:256" customHeight="1" ht="19.57">
       <c r="B432">
         <v>897</v>
       </c>
     </row>
-    <row r="433" spans="1:236" customHeight="1" ht="19.57">
+    <row r="433" spans="1:256" customHeight="1" ht="19.57">
       <c r="B433">
         <v>898</v>
       </c>
     </row>
-    <row r="434" spans="1:236" customHeight="1" ht="19.57">
+    <row r="434" spans="1:256" customHeight="1" ht="19.57">
       <c r="B434">
         <v>899</v>
       </c>
     </row>
-    <row r="435" spans="1:236" customHeight="1" ht="19.57">
+    <row r="435" spans="1:256" customHeight="1" ht="19.57">
       <c r="B435">
         <v>900</v>
       </c>
     </row>
-    <row r="436" spans="1:236" customHeight="1" ht="19.57">
+    <row r="436" spans="1:256" customHeight="1" ht="19.57">
       <c r="B436">
         <v>901</v>
       </c>
     </row>
-    <row r="437" spans="1:236" customHeight="1" ht="19.57">
+    <row r="437" spans="1:256" customHeight="1" ht="19.57">
       <c r="B437">
         <v>902</v>
       </c>
     </row>
-    <row r="438" spans="1:236" customHeight="1" ht="19.57">
+    <row r="438" spans="1:256" customHeight="1" ht="19.57">
       <c r="B438">
         <v>903</v>
       </c>
     </row>
-    <row r="439" spans="1:236" customHeight="1" ht="19.57">
+    <row r="439" spans="1:256" customHeight="1" ht="19.57">
       <c r="B439">
         <v>904</v>
       </c>
     </row>
-    <row r="440" spans="1:236" customHeight="1" ht="19.57">
+    <row r="440" spans="1:256" customHeight="1" ht="19.57">
       <c r="B440">
         <v>905</v>
       </c>
     </row>
-    <row r="441" spans="1:236" customHeight="1" ht="19.57">
+    <row r="441" spans="1:256" customHeight="1" ht="19.57">
       <c r="B441">
         <v>906</v>
       </c>
     </row>
-    <row r="442" spans="1:236" customHeight="1" ht="19.57">
+    <row r="442" spans="1:256" customHeight="1" ht="19.57">
       <c r="B442">
         <v>907</v>
       </c>
     </row>
-    <row r="65527" spans="1:236">
+    <row r="65527" spans="1:256">
       <c r="A65527" s="0"/>
       <c r="B65527" s="0"/>
       <c r="C65527" s="0"/>
@@ -6632,7 +6608,7 @@
       <c r="IA65527" s="0"/>
       <c r="IB65527" s="0"/>
     </row>
-    <row r="65528" spans="1:236">
+    <row r="65528" spans="1:256">
       <c r="A65528" s="0"/>
       <c r="B65528" s="0"/>
       <c r="C65528" s="0"/>
@@ -6870,7 +6846,7 @@
       <c r="IA65528" s="0"/>
       <c r="IB65528" s="0"/>
     </row>
-    <row r="65529" spans="1:236">
+    <row r="65529" spans="1:256">
       <c r="A65529" s="0"/>
       <c r="B65529" s="0"/>
       <c r="C65529" s="0"/>
@@ -7108,7 +7084,7 @@
       <c r="IA65529" s="0"/>
       <c r="IB65529" s="0"/>
     </row>
-    <row r="65530" spans="1:236">
+    <row r="65530" spans="1:256">
       <c r="A65530" s="0"/>
       <c r="B65530" s="0"/>
       <c r="C65530" s="0"/>
@@ -7346,7 +7322,7 @@
       <c r="IA65530" s="0"/>
       <c r="IB65530" s="0"/>
     </row>
-    <row r="65531" spans="1:236">
+    <row r="65531" spans="1:256">
       <c r="A65531" s="0"/>
       <c r="B65531" s="0"/>
       <c r="C65531" s="0"/>
@@ -7584,7 +7560,7 @@
       <c r="IA65531" s="0"/>
       <c r="IB65531" s="0"/>
     </row>
-    <row r="65532" spans="1:236">
+    <row r="65532" spans="1:256">
       <c r="A65532" s="0"/>
       <c r="B65532" s="0"/>
       <c r="C65532" s="0"/>
@@ -7822,7 +7798,7 @@
       <c r="IA65532" s="0"/>
       <c r="IB65532" s="0"/>
     </row>
-    <row r="65533" spans="1:236">
+    <row r="65533" spans="1:256">
       <c r="A65533" s="0"/>
       <c r="B65533" s="0"/>
       <c r="C65533" s="0"/>
@@ -8060,7 +8036,7 @@
       <c r="IA65533" s="0"/>
       <c r="IB65533" s="0"/>
     </row>
-    <row r="65534" spans="1:236">
+    <row r="65534" spans="1:256">
       <c r="A65534" s="0"/>
       <c r="B65534" s="0"/>
       <c r="C65534" s="0"/>
@@ -8298,7 +8274,7 @@
       <c r="IA65534" s="0"/>
       <c r="IB65534" s="0"/>
     </row>
-    <row r="65535" spans="1:236">
+    <row r="65535" spans="1:256">
       <c r="A65535" s="0"/>
       <c r="B65535" s="0"/>
       <c r="C65535" s="0"/>
@@ -8536,7 +8512,7 @@
       <c r="IA65535" s="0"/>
       <c r="IB65535" s="0"/>
     </row>
-    <row r="65536" spans="1:236">
+    <row r="65536" spans="1:256">
       <c r="A65536" s="0"/>
       <c r="B65536" s="0"/>
       <c r="C65536" s="0"/>
@@ -8796,7 +8772,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="X2:BL42"/>
+  <dimension ref="X2:IV42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="W43" sqref="W43"/>
@@ -8804,250 +8780,250 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="1" style="50" width="4.428305288461539"/>
-    <col min="2" max="256" style="50" width="4.428305288461539"/>
+    <col min="1" max="256" style="47" width="4.428305288461539" bestFit="1" customWidth="1"/>
+    <col min="257" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="2" spans="24:64">
+    <row r="2" spans="24:256">
       <c r="BL2">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="24:64">
+    <row r="3" spans="24:256">
       <c r="BK3">
         <f>BL2-1</f>
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="24:64">
+    <row r="4" spans="24:256">
       <c r="BJ4">
         <f>BK3-1</f>
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="24:64">
+    <row r="5" spans="24:256">
       <c r="BI5">
         <f>BJ4-1</f>
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="24:64">
+    <row r="6" spans="24:256">
       <c r="BH6">
         <f>BI5-1</f>
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="24:64">
+    <row r="7" spans="24:256">
       <c r="BG7">
         <f>BH6-1</f>
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="24:64">
+    <row r="8" spans="24:256">
       <c r="BF8">
         <f>BG7-1</f>
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="24:64">
+    <row r="9" spans="24:256">
       <c r="BE9">
         <f>BF8-1</f>
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="24:64">
+    <row r="10" spans="24:256">
       <c r="BD10">
         <f>BE9-1</f>
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="24:64">
+    <row r="11" spans="24:256">
       <c r="BC11">
         <f>BD10-1</f>
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="24:64">
+    <row r="12" spans="24:256">
       <c r="BB12">
         <f>BC11-1</f>
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="24:64">
+    <row r="13" spans="24:256">
       <c r="BA13">
         <f>BB12-1</f>
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="24:64">
+    <row r="14" spans="24:256">
       <c r="AZ14">
         <f>BA13-1</f>
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="24:64">
+    <row r="15" spans="24:256">
       <c r="AY15">
         <f>AZ14-1</f>
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="24:64">
+    <row r="16" spans="24:256">
       <c r="AX16">
         <f>AY15-1</f>
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="24:64">
+    <row r="17" spans="24:256">
       <c r="AW17">
         <f>AX16-1</f>
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="24:64">
+    <row r="18" spans="24:256">
       <c r="AV18">
         <f>AW17-1</f>
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="24:64">
+    <row r="19" spans="24:256">
       <c r="AU19">
         <f>AV18-1</f>
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="24:64">
+    <row r="20" spans="24:256">
       <c r="AT20">
         <f>AU19-1</f>
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="24:64">
+    <row r="21" spans="24:256">
       <c r="AS21">
         <f>AT20-1</f>
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="24:64">
+    <row r="22" spans="24:256">
       <c r="AR22">
         <f>AS21-1</f>
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="24:64">
+    <row r="23" spans="24:256">
       <c r="AQ23">
         <f>AR22-1</f>
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="24:64">
+    <row r="24" spans="24:256">
       <c r="AP24">
         <f>AQ23-1</f>
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="24:64">
+    <row r="25" spans="24:256">
       <c r="AO25">
         <f>AP24-1</f>
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="24:64">
+    <row r="26" spans="24:256">
       <c r="AN26">
         <f>AO25-1</f>
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="24:64">
+    <row r="27" spans="24:256">
       <c r="AM27">
         <f>AN26-1</f>
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="24:64">
+    <row r="28" spans="24:256">
       <c r="AL28">
         <f>AM27-1</f>
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="24:64">
+    <row r="29" spans="24:256">
       <c r="AK29">
         <f>AL28-1</f>
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="24:64">
+    <row r="30" spans="24:256">
       <c r="AJ30">
         <f>AK29-1</f>
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="24:64">
+    <row r="31" spans="24:256">
       <c r="AI31">
         <f>AJ30-1</f>
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="24:64">
+    <row r="32" spans="24:256">
       <c r="AH32">
         <f>AI31-1</f>
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="24:64">
+    <row r="33" spans="24:256">
       <c r="AG33">
         <f>AH32-1</f>
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="24:64">
+    <row r="34" spans="24:256">
       <c r="AF34">
         <f>AG33-1</f>
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="24:64">
+    <row r="35" spans="24:256">
       <c r="AE35">
         <f>AF34-1</f>
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="24:64">
+    <row r="36" spans="24:256">
       <c r="AD36">
         <f>AE35-1</f>
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="24:64">
+    <row r="37" spans="24:256">
       <c r="AC37">
         <f>AD36-1</f>
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="24:64">
+    <row r="38" spans="24:256">
       <c r="AB38">
         <f>AC37-1</f>
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="24:64">
+    <row r="39" spans="24:256">
       <c r="AA39">
         <f>AB38-1</f>
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="24:64">
+    <row r="40" spans="24:256">
       <c r="Z40">
         <f>AA39-1</f>
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="24:64">
+    <row r="41" spans="24:256">
       <c r="Y41">
         <f>Z40-1</f>
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="24:64">
+    <row r="42" spans="24:256">
       <c r="X42">
         <f>Y41-1</f>
         <v>216</v>
@@ -9070,7 +9046,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="B2:CG87"/>
+  <dimension ref="B2:IV87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="BE98" sqref="BE98"/>
@@ -9078,11 +9054,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5"/>
   <cols>
-    <col min="1" max="1" style="50" width="4.285456730769231"/>
-    <col min="2" max="256" style="50" width="4.285456730769231"/>
+    <col min="1" max="256" style="47" width="4.285456730769231" bestFit="1" customWidth="1"/>
+    <col min="257" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:85">
+    <row r="2" spans="2:256">
       <c r="C2">
         <v>215</v>
       </c>
@@ -9333,427 +9309,427 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="2:85">
+    <row r="3" spans="2:256">
       <c r="B3">
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="2:85">
+    <row r="4" spans="2:256">
       <c r="B4">
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="2:85">
+    <row r="5" spans="2:256">
       <c r="B5">
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="2:85">
+    <row r="6" spans="2:256">
       <c r="B6">
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="2:85">
+    <row r="7" spans="2:256">
       <c r="B7">
         <v>474</v>
       </c>
     </row>
-    <row r="8" spans="2:85">
+    <row r="8" spans="2:256">
       <c r="B8">
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="2:85">
+    <row r="9" spans="2:256">
       <c r="B9">
         <v>476</v>
       </c>
     </row>
-    <row r="10" spans="2:85">
+    <row r="10" spans="2:256">
       <c r="B10">
         <v>477</v>
       </c>
     </row>
-    <row r="11" spans="2:85">
+    <row r="11" spans="2:256">
       <c r="B11">
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="2:85">
+    <row r="12" spans="2:256">
       <c r="B12">
         <v>479</v>
       </c>
     </row>
-    <row r="13" spans="2:85">
+    <row r="13" spans="2:256">
       <c r="B13">
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="2:85">
+    <row r="14" spans="2:256">
       <c r="B14">
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="2:85">
+    <row r="15" spans="2:256">
       <c r="B15">
         <v>482</v>
       </c>
     </row>
-    <row r="16" spans="2:85">
+    <row r="16" spans="2:256">
       <c r="B16">
         <v>483</v>
       </c>
     </row>
-    <row r="17" spans="2:85">
+    <row r="17" spans="2:256">
       <c r="B17">
         <v>484</v>
       </c>
     </row>
-    <row r="18" spans="2:85">
+    <row r="18" spans="2:256">
       <c r="B18">
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="2:85">
+    <row r="19" spans="2:256">
       <c r="B19">
         <v>486</v>
       </c>
     </row>
-    <row r="20" spans="2:85">
+    <row r="20" spans="2:256">
       <c r="B20">
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="2:85">
+    <row r="21" spans="2:256">
       <c r="B21">
         <v>488</v>
       </c>
     </row>
-    <row r="22" spans="2:85">
+    <row r="22" spans="2:256">
       <c r="B22">
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="2:85">
+    <row r="23" spans="2:256">
       <c r="B23">
         <v>490</v>
       </c>
     </row>
-    <row r="24" spans="2:85">
+    <row r="24" spans="2:256">
       <c r="B24">
         <v>491</v>
       </c>
     </row>
-    <row r="25" spans="2:85">
+    <row r="25" spans="2:256">
       <c r="B25">
         <v>492</v>
       </c>
     </row>
-    <row r="26" spans="2:85">
+    <row r="26" spans="2:256">
       <c r="B26">
         <v>493</v>
       </c>
     </row>
-    <row r="27" spans="2:85">
+    <row r="27" spans="2:256">
       <c r="B27">
         <v>494</v>
       </c>
     </row>
-    <row r="28" spans="2:85">
+    <row r="28" spans="2:256">
       <c r="B28">
         <v>495</v>
       </c>
     </row>
-    <row r="29" spans="2:85">
+    <row r="29" spans="2:256">
       <c r="B29">
         <v>496</v>
       </c>
     </row>
-    <row r="30" spans="2:85">
+    <row r="30" spans="2:256">
       <c r="B30">
         <v>497</v>
       </c>
     </row>
-    <row r="31" spans="2:85">
+    <row r="31" spans="2:256">
       <c r="B31">
         <v>498</v>
       </c>
     </row>
-    <row r="32" spans="2:85">
+    <row r="32" spans="2:256">
       <c r="B32">
         <v>499</v>
       </c>
     </row>
-    <row r="33" spans="2:85">
+    <row r="33" spans="2:256">
       <c r="B33">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:85">
+    <row r="34" spans="2:256">
       <c r="B34">
         <v>501</v>
       </c>
     </row>
-    <row r="35" spans="2:85">
+    <row r="35" spans="2:256">
       <c r="B35">
         <v>502</v>
       </c>
     </row>
-    <row r="36" spans="2:85">
+    <row r="36" spans="2:256">
       <c r="B36">
         <v>503</v>
       </c>
     </row>
-    <row r="37" spans="2:85">
+    <row r="37" spans="2:256">
       <c r="B37">
         <v>504</v>
       </c>
     </row>
-    <row r="38" spans="2:85">
+    <row r="38" spans="2:256">
       <c r="B38">
         <v>505</v>
       </c>
     </row>
-    <row r="39" spans="2:85">
+    <row r="39" spans="2:256">
       <c r="B39">
         <v>506</v>
       </c>
     </row>
-    <row r="40" spans="2:85">
+    <row r="40" spans="2:256">
       <c r="B40">
         <v>507</v>
       </c>
     </row>
-    <row r="41" spans="2:85">
+    <row r="41" spans="2:256">
       <c r="B41">
         <v>508</v>
       </c>
     </row>
-    <row r="42" spans="2:85">
+    <row r="42" spans="2:256">
       <c r="B42">
         <v>509</v>
       </c>
     </row>
-    <row r="43" spans="2:85">
+    <row r="43" spans="2:256">
       <c r="B43">
         <v>510</v>
       </c>
     </row>
-    <row r="44" spans="2:85">
+    <row r="44" spans="2:256">
       <c r="B44">
         <v>511</v>
       </c>
     </row>
-    <row r="45" spans="2:85">
+    <row r="45" spans="2:256">
       <c r="B45">
         <v>512</v>
       </c>
     </row>
-    <row r="46" spans="2:85">
+    <row r="46" spans="2:256">
       <c r="B46">
         <v>513</v>
       </c>
     </row>
-    <row r="47" spans="2:85">
+    <row r="47" spans="2:256">
       <c r="B47">
         <v>514</v>
       </c>
     </row>
-    <row r="48" spans="2:85">
+    <row r="48" spans="2:256">
       <c r="B48">
         <v>515</v>
       </c>
     </row>
-    <row r="49" spans="2:85">
+    <row r="49" spans="2:256">
       <c r="B49">
         <v>516</v>
       </c>
     </row>
-    <row r="50" spans="2:85">
+    <row r="50" spans="2:256">
       <c r="B50">
         <v>517</v>
       </c>
     </row>
-    <row r="51" spans="2:85">
+    <row r="51" spans="2:256">
       <c r="B51">
         <v>518</v>
       </c>
     </row>
-    <row r="52" spans="2:85">
+    <row r="52" spans="2:256">
       <c r="B52">
         <v>519</v>
       </c>
     </row>
-    <row r="53" spans="2:85">
+    <row r="53" spans="2:256">
       <c r="B53">
         <v>520</v>
       </c>
     </row>
-    <row r="54" spans="2:85">
+    <row r="54" spans="2:256">
       <c r="B54">
         <v>521</v>
       </c>
     </row>
-    <row r="55" spans="2:85">
+    <row r="55" spans="2:256">
       <c r="B55">
         <v>522</v>
       </c>
     </row>
-    <row r="56" spans="2:85">
+    <row r="56" spans="2:256">
       <c r="B56">
         <v>523</v>
       </c>
     </row>
-    <row r="57" spans="2:85">
+    <row r="57" spans="2:256">
       <c r="B57">
         <v>524</v>
       </c>
     </row>
-    <row r="58" spans="2:85">
+    <row r="58" spans="2:256">
       <c r="B58">
         <v>525</v>
       </c>
     </row>
-    <row r="59" spans="2:85">
+    <row r="59" spans="2:256">
       <c r="B59">
         <v>526</v>
       </c>
     </row>
-    <row r="60" spans="2:85">
+    <row r="60" spans="2:256">
       <c r="B60">
         <v>527</v>
       </c>
     </row>
-    <row r="61" spans="2:85">
+    <row r="61" spans="2:256">
       <c r="B61">
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="2:85">
+    <row r="62" spans="2:256">
       <c r="B62">
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="2:85">
+    <row r="63" spans="2:256">
       <c r="B63">
         <v>530</v>
       </c>
     </row>
-    <row r="64" spans="2:85">
+    <row r="64" spans="2:256">
       <c r="B64">
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="2:85">
+    <row r="65" spans="2:256">
       <c r="B65">
         <v>532</v>
       </c>
     </row>
-    <row r="66" spans="2:85">
+    <row r="66" spans="2:256">
       <c r="B66">
         <v>533</v>
       </c>
     </row>
-    <row r="67" spans="2:85">
+    <row r="67" spans="2:256">
       <c r="B67">
         <v>534</v>
       </c>
     </row>
-    <row r="68" spans="2:85">
+    <row r="68" spans="2:256">
       <c r="B68">
         <v>535</v>
       </c>
     </row>
-    <row r="69" spans="2:85">
+    <row r="69" spans="2:256">
       <c r="B69">
         <v>536</v>
       </c>
     </row>
-    <row r="70" spans="2:85">
+    <row r="70" spans="2:256">
       <c r="B70">
         <v>537</v>
       </c>
     </row>
-    <row r="71" spans="2:85">
+    <row r="71" spans="2:256">
       <c r="B71">
         <v>538</v>
       </c>
     </row>
-    <row r="72" spans="2:85">
+    <row r="72" spans="2:256">
       <c r="B72">
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="2:85">
+    <row r="73" spans="2:256">
       <c r="B73">
         <v>540</v>
       </c>
     </row>
-    <row r="74" spans="2:85">
+    <row r="74" spans="2:256">
       <c r="B74">
         <v>541</v>
       </c>
     </row>
-    <row r="75" spans="2:85">
+    <row r="75" spans="2:256">
       <c r="B75">
         <v>542</v>
       </c>
     </row>
-    <row r="76" spans="2:85">
+    <row r="76" spans="2:256">
       <c r="B76">
         <v>543</v>
       </c>
     </row>
-    <row r="77" spans="2:85">
+    <row r="77" spans="2:256">
       <c r="B77">
         <v>544</v>
       </c>
     </row>
-    <row r="78" spans="2:85">
+    <row r="78" spans="2:256">
       <c r="B78">
         <v>545</v>
       </c>
     </row>
-    <row r="79" spans="2:85">
+    <row r="79" spans="2:256">
       <c r="B79">
         <v>546</v>
       </c>
     </row>
-    <row r="80" spans="2:85">
+    <row r="80" spans="2:256">
       <c r="B80">
         <v>547</v>
       </c>
     </row>
-    <row r="81" spans="2:85">
+    <row r="81" spans="2:256">
       <c r="B81">
         <v>548</v>
       </c>
     </row>
-    <row r="82" spans="2:85">
+    <row r="82" spans="2:256">
       <c r="B82">
         <v>549</v>
       </c>
     </row>
-    <row r="83" spans="2:85">
+    <row r="83" spans="2:256">
       <c r="B83">
         <v>550</v>
       </c>
     </row>
-    <row r="84" spans="2:85">
+    <row r="84" spans="2:256">
       <c r="B84">
         <v>551</v>
       </c>
     </row>
-    <row r="85" spans="2:85">
+    <row r="85" spans="2:256">
       <c r="B85">
         <v>552</v>
       </c>
     </row>
-    <row r="86" spans="2:85">
+    <row r="86" spans="2:256">
       <c r="B86">
         <v>553</v>
       </c>
     </row>
-    <row r="87" spans="2:85">
+    <row r="87" spans="2:256">
       <c r="B87">
         <v>554</v>
       </c>
